--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 9:31 AM</t>
+    <t>Monday, 25 August, 2025 9:36 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
+    <t>1:0</t>
   </si>
   <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
@@ -724,38 +742,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>23.760000000000002</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>54.259999999999998</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>25</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +820,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -80,7 +80,19 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 9:36 AM</t>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>43:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Monday, 25 August, 2025 10:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -775,38 +787,71 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>54.259999999999998</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>24</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>24</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>25</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>89.260000000000005</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>29</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -825,10 +870,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -92,7 +92,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:15 AM</t>
+    <t>Monday, 25 August, 2025 10:17 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -80,6 +80,27 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -92,7 +113,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:17 AM</t>
+    <t>Monday, 25 August, 2025 10:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,7 +826,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -816,42 +837,108 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>19</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>89.260000000000005</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>28</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>29</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>160.04499999999999</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -875,10 +962,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -113,7 +122,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:18 AM</t>
+    <t>Monday, 25 August, 2025 10:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -886,59 +895,92 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>160.04499999999999</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>256.04500000000002</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>39</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1014,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -122,7 +122,19 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:22 AM</t>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Monday, 25 August, 2025 10:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -949,38 +961,71 @@
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>256.04500000000002</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>38</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>39</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>266.04500000000002</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>42</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>43</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1019,10 +1064,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -134,7 +134,19 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:49 AM</t>
+    <t>زيت برافين</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Monday, 25 August, 2025 11:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -994,38 +1006,71 @@
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>266.04500000000002</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>41</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>42</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>43</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>286.04500000000002</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>46</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>47</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1069,10 +1114,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -68,18 +86,12 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -146,7 +158,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 11:12 AM</t>
+    <t>Monday, 25 August, 2025 11:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -859,7 +871,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -870,7 +882,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -886,24 +898,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -912,28 +924,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -945,14 +957,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -969,7 +981,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -991,7 +1003,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1002,7 +1014,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1024,7 +1036,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1035,42 +1047,75 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>286.04500000000002</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>45</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>46</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>19</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>47</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>312.77499999999998</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>50</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>51</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1119,10 +1164,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -158,7 +158,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 11:14 AM</t>
+    <t>Monday, 25 August, 2025 11:20 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -92,12 +92,21 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -158,7 +167,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 11:20 AM</t>
+    <t>Monday, 25 August, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -931,7 +940,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -964,7 +973,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -981,7 +990,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -997,21 +1006,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -1023,14 +1032,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1040,11 +1049,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>22</v>
@@ -1056,14 +1065,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1073,49 +1082,82 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>312.77499999999998</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>49</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>19</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>50</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>51</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>335.77499999999998</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>53</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>54</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1169,10 +1211,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -80,6 +80,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CEFZIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -165,6 +177,24 @@
   </si>
   <si>
     <t>20.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
   </si>
   <si>
     <t>Monday, 25 August, 2025 11:22 AM</t>
@@ -891,7 +921,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -940,7 +970,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -950,11 +980,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -966,14 +996,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -983,11 +1013,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -999,14 +1029,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1016,14 +1046,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1032,20 +1062,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1126,38 +1156,137 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>335.77499999999998</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>52</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>53</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>19</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>54</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>19</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>57</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>18</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>19</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>399.77499999999998</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>62</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>63</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>64</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1216,10 +1345,25 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -197,7 +197,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 11:22 AM</t>
+    <t>Monday, 25 August, 2025 11:38 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -155,6 +167,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ببرونه صغير الجو</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -173,12 +197,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -197,7 +215,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 11:38 AM</t>
+    <t>Monday, 25 August, 2025 11:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1003,7 +1021,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1013,11 +1031,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1029,14 +1047,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1046,11 +1064,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1062,14 +1080,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1079,14 +1097,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1095,20 +1113,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1201,7 +1219,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1211,11 +1229,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1227,14 +1245,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1244,49 +1262,115 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>399.77499999999998</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>62</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>19</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>63</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>64</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>19</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>66</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>457.69499999999999</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>68</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>69</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>70</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1360,10 +1444,20 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 11:42 AM</t>
+    <t>Monday, 25 August, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -215,7 +224,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 11:56 AM</t>
+    <t>Monday, 25 August, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,7 +1030,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1031,14 +1040,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1047,14 +1056,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1087,7 +1096,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1120,7 +1129,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1137,7 +1146,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1153,21 +1162,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>22</v>
@@ -1179,14 +1188,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1196,11 +1205,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1212,14 +1221,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1229,11 +1238,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1245,14 +1254,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1262,11 +1271,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1278,14 +1287,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1295,11 +1304,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1339,38 +1348,71 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>457.69499999999999</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>68</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>19</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>69</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>687.69500000000005</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>71</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>72</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>73</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1454,10 +1496,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -80,6 +80,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CEFZIM 1 GM VIAL</t>
   </si>
   <si>
@@ -203,16 +218,13 @@
     <t>زيت برافين</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>18.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -221,10 +233,13 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>Monday, 25 August, 2025 12:03 PM</t>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>Monday, 25 August, 2025 12:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -948,7 +963,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -957,14 +972,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -974,14 +989,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -990,14 +1005,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1007,11 +1022,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1023,14 +1038,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1040,14 +1055,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1056,14 +1071,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1073,14 +1088,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1089,14 +1104,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1106,11 +1121,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1122,14 +1137,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1139,11 +1154,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1155,14 +1170,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1172,14 +1187,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1188,28 +1203,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1221,14 +1236,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1238,11 +1253,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1254,14 +1269,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1271,11 +1286,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1287,14 +1302,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1304,11 +1319,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1320,14 +1335,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1337,11 +1352,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1353,7 +1368,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1370,49 +1385,82 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>687.69500000000005</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>71</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>72</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>19</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>73</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>795.69500000000005</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>76</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>77</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>78</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1501,10 +1549,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -119,6 +119,24 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -203,6 +221,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>55:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -239,7 +269,16 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 12:08 PM</t>
+    <t>كريم فاتيكا 190 مل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>Monday, 25 August, 2025 12:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1045,7 +1084,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1055,11 +1094,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1071,14 +1110,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1088,11 +1127,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -1104,14 +1143,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1121,11 +1160,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1137,14 +1176,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1154,14 +1193,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1170,14 +1209,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1210,7 +1249,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1227,7 +1266,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1243,24 +1282,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1269,28 +1308,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1302,14 +1341,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1319,11 +1358,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1335,14 +1374,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1352,11 +1391,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1368,14 +1407,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1385,14 +1424,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1401,14 +1440,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1418,49 +1457,181 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>795.69500000000005</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>76</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>77</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>78</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>27</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>19</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>68</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>18</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>19</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>80</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>18</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>19</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>83</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>86</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>22</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>19</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>87</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>914.69500000000005</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>89</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>90</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>91</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1554,10 +1725,30 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -107,6 +107,24 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>CERELAC رز بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -278,7 +296,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 12:35 PM</t>
+    <t>Monday, 25 August, 2025 12:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1051,24 +1069,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1077,7 +1095,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1094,14 +1112,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1110,14 +1128,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1134,7 +1152,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1150,7 +1168,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1160,11 +1178,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1176,14 +1194,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1193,11 +1211,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1209,14 +1227,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1226,11 +1244,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1242,14 +1260,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1259,14 +1277,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1275,14 +1293,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1315,7 +1333,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1332,7 +1350,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1348,24 +1366,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1374,28 +1392,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1407,14 +1425,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1424,14 +1442,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1440,14 +1458,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1457,11 +1475,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1473,14 +1491,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1490,14 +1508,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1523,14 +1541,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1539,14 +1557,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1556,14 +1574,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1572,14 +1590,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1589,49 +1607,115 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>88</v>
       </c>
-      <c t="s" r="Q27" s="12">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>19</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>89</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>914.69500000000005</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>89</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>90</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>91</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>19</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>93</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1017.6950000000001</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>95</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>96</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>97</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1745,10 +1829,20 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 12:36 PM</t>
+    <t>Monday, 25 August, 2025 12:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>FOLICAP 2.5MG 24 CAP</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -296,7 +305,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 12:37 PM</t>
+    <t>Monday, 25 August, 2025 12:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1210,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1234,7 +1243,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1244,14 +1253,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1260,14 +1269,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1284,7 +1293,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1300,7 +1309,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1310,14 +1319,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1326,14 +1335,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1366,7 +1375,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1399,7 +1408,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1416,7 +1425,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1432,21 +1441,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -1458,14 +1467,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1475,11 +1484,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1491,14 +1500,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1508,14 +1517,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1524,14 +1533,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1541,14 +1550,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1557,14 +1566,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1574,11 +1583,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1607,14 +1616,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1647,7 +1656,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1656,14 +1665,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1673,49 +1682,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>94</v>
       </c>
-      <c t="s" r="Q29" s="12">
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1017.6950000000001</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>95</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>19</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>96</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1030.1949999999999</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>100</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1839,10 +1881,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t xml:space="preserve">VIOCYST 30  TAB</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -305,7 +314,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 12:38 PM</t>
+    <t>Monday, 25 August, 2025 12:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1441,13 +1450,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1474,21 +1483,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1517,11 +1526,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1533,14 +1542,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,14 +1559,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,14 +1608,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1616,11 +1625,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1649,14 +1658,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1689,7 +1698,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1715,49 +1724,82 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>97</v>
       </c>
-      <c t="s" r="Q30" s="12">
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>98</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1030.1949999999999</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>98</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>19</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>99</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1280.1949999999999</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>101</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>102</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>103</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1886,10 +1928,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -314,7 +314,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 12:43 PM</t>
+    <t>Monday, 25 August, 2025 12:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -314,7 +314,10 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 12:47 PM</t>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>Monday, 25 August, 2025 12:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1768,38 +1771,71 @@
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1280.1949999999999</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>101</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>22</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>19</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>76</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1315.1949999999999</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
         <v>102</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
         <v>103</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>104</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1933,10 +1969,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -155,6 +167,15 @@
     <t>12.5000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -302,9 +323,6 @@
     <t>9.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -317,7 +335,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 12:52 PM</t>
+    <t>Monday, 25 August, 2025 1:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,18 +1015,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1017,31 +1035,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>26</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1050,14 +1068,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1067,14 +1085,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1090,24 +1108,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1116,31 +1134,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1149,14 +1167,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1173,7 +1191,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1189,7 +1207,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1199,11 +1217,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1215,7 +1233,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1232,14 +1250,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1248,14 +1266,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1265,14 +1283,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1281,14 +1299,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1321,7 +1339,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1338,7 +1356,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1387,7 +1405,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1404,7 +1422,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1420,7 +1438,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1430,11 +1448,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1446,31 +1464,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1479,14 +1497,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1496,14 +1514,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1512,20 +1530,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1536,7 +1554,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1552,24 +1570,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1578,31 +1596,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1611,31 +1629,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1644,31 +1662,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1677,31 +1695,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1710,31 +1728,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1756,7 +1774,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1767,7 +1785,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1789,53 +1807,119 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1315.1949999999999</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>102</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>103</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>104</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>26</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>23</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>105</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>26</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>23</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>83</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1428.6949999999999</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>108</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>109</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>110</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1974,10 +2058,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>12.5000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
   </si>
   <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
@@ -1306,7 +1315,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1323,7 +1332,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1339,7 +1348,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1356,7 +1365,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1372,7 +1381,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1382,14 +1391,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1398,14 +1407,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1422,7 +1431,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1438,7 +1447,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1448,14 +1457,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1464,14 +1473,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1504,7 +1513,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1543,7 +1552,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1554,7 +1563,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1570,13 +1579,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1603,21 +1612,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -1629,14 +1638,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1646,11 +1655,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -1662,14 +1671,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1679,14 +1688,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1695,14 +1704,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1712,14 +1721,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1745,11 +1754,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -1761,14 +1770,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1778,14 +1787,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1818,7 +1827,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1834,7 +1843,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1851,7 +1860,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1877,49 +1886,82 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1428.6949999999999</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>108</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>109</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>110</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>26</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>23</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>86</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1450.6949999999999</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>111</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>112</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>113</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2068,10 +2110,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -344,7 +344,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 1:03 PM</t>
+    <t>Monday, 25 August, 2025 1:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>25.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
   </si>
   <si>
     <t>FOLICAP 2.5MG 24 CAP</t>
@@ -1282,7 +1291,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1299,7 +1308,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1315,7 +1324,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1348,7 +1357,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1365,7 +1374,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1381,7 +1390,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1398,7 +1407,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1414,7 +1423,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1424,14 +1433,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1440,14 +1449,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1464,7 +1473,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1480,7 +1489,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1490,14 +1499,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1506,14 +1515,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1546,7 +1555,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1585,7 +1594,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1596,7 +1605,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1612,13 +1621,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1645,21 +1654,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -1671,14 +1680,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1688,11 +1697,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -1704,14 +1713,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1737,14 +1746,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1754,14 +1763,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1770,14 +1779,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1787,11 +1796,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1803,14 +1812,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1820,14 +1829,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1860,7 +1869,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1876,7 +1885,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1893,7 +1902,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1919,49 +1928,82 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1450.6949999999999</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>111</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>112</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>113</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>26</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>23</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>89</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1516.6949999999999</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>114</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>115</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>116</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2115,10 +2157,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>CEMBA CAPS</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>CERELAC رز بدون لبن</t>
   </si>
   <si>
@@ -254,6 +263,12 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TEGRETOL CR 200MG 20 F.C. DIVITAB.</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIOCYST 30  TAB</t>
   </si>
   <si>
@@ -353,7 +368,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 1:21 PM</t>
+    <t>Monday, 25 August, 2025 1:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1159,7 +1174,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1176,7 +1191,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1198,7 +1213,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1225,7 +1240,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1235,14 +1250,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1251,14 +1266,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1291,7 +1306,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1324,7 +1339,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1341,7 +1356,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1357,7 +1372,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1390,7 +1405,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1407,7 +1422,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1423,7 +1438,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1440,7 +1455,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1456,7 +1471,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1466,14 +1481,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1482,14 +1497,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1506,7 +1521,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1522,7 +1537,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1532,14 +1547,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1588,7 +1603,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1627,7 +1642,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1638,7 +1653,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1654,7 +1669,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1668,10 +1683,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1680,14 +1695,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1697,11 +1712,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -1713,28 +1728,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -1746,14 +1761,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1763,14 +1778,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1779,14 +1794,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1796,11 +1811,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1812,14 +1827,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1829,14 +1844,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1852,7 +1867,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1862,14 +1877,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1878,14 +1893,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1895,14 +1910,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1911,14 +1926,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1928,14 +1943,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1944,14 +1959,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1961,49 +1976,115 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>115</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1516.6949999999999</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>114</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>115</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>23</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>116</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>118</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>26</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>23</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>94</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1647.1949999999999</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>119</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>120</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>121</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2162,10 +2243,20 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -278,6 +278,18 @@
     <t>250.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -344,7 +356,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -368,7 +380,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 1:43 PM</t>
+    <t>Monday, 25 August, 2025 2:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1735,7 +1747,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1745,14 +1757,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1761,20 +1773,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1851,7 +1863,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1884,7 +1896,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1900,7 +1912,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1910,11 +1922,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -1926,14 +1938,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1943,14 +1955,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1959,7 +1971,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1976,14 +1988,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1992,14 +2004,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2009,14 +2021,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2025,7 +2037,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2042,49 +2054,82 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1647.1949999999999</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>119</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>120</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>121</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>122</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>26</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>23</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>98</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1666.0250000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>123</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>124</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>125</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2253,10 +2298,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -233,16 +233,31 @@
     <t>230.0000</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:33</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
-    <t>0:5</t>
+    <t>0:4</t>
   </si>
   <si>
     <t>237.00</t>
   </si>
   <si>
-    <t>37.9200</t>
+    <t>75.8400</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
@@ -380,7 +395,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 2:00 PM</t>
+    <t>Monday, 25 August, 2025 3:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1592,14 +1607,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1615,7 +1630,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,14 +1640,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1641,14 +1656,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,11 +1673,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1674,14 +1689,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1691,11 +1706,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1707,31 +1722,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1740,31 +1755,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,14 +1788,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1790,14 +1805,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1806,28 +1821,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1839,14 +1854,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1856,11 +1871,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
@@ -1872,14 +1887,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1889,14 +1904,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1905,14 +1920,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1922,14 +1937,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,14 +1953,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1955,11 +1970,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -1971,14 +1986,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1988,14 +2003,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2004,7 +2019,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2021,14 +2036,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,14 +2052,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2054,14 +2069,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2070,7 +2085,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2087,49 +2102,82 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1666.0250000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>123</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>124</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>125</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>127</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>26</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>23</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>103</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1714.5050000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>128</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>129</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>130</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2303,10 +2351,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>0:8</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -365,6 +374,15 @@
     <t>زيت برافين</t>
   </si>
   <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -395,7 +413,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 3:52 PM</t>
+    <t>Monday, 25 August, 2025 4:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,7 +1648,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1640,14 +1658,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1656,14 +1674,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1673,14 +1691,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1696,7 +1714,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1729,7 +1747,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1743,7 +1761,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1755,31 +1773,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1795,24 +1813,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,14 +1839,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1845,7 +1863,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1861,21 +1879,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
@@ -1887,14 +1905,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1904,11 +1922,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -1920,14 +1938,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1937,14 +1955,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,14 +1971,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1970,14 +1988,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1986,14 +2004,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2003,11 +2021,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2019,14 +2037,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2036,14 +2054,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2059,7 +2077,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2069,14 +2087,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2092,7 +2110,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2106,10 +2124,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2125,7 +2143,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2135,49 +2153,115 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>130</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1714.5050000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>128</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>129</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>130</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>23</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>131</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>133</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>26</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>23</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>106</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1769.5050000000001</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>134</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>135</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>136</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2356,10 +2440,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -413,7 +413,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 4:48 PM</t>
+    <t>Monday, 25 August, 2025 4:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -65,340 +65,367 @@
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CEFZIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>CEMBA CAPS</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>CERELAC رز بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>FOLICAP 2.5MG 24 CAP</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:33</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>75.8400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 200MG 20 F.C. DIVITAB.</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOCYST 30  TAB</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>43:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>ببرونه صغير الجو</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>55:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>زيت برافين</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>3:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>30.5000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CEFZIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>CEMBA CAPS</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>CERELAC رز بدون لبن</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>FOLICAP 2.5MG 24 CAP</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:33</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL CREAM 20GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>75.8400</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 200MG 20 F.C. DIVITAB.</t>
-  </si>
-  <si>
-    <t>61.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIOCYST 30  TAB</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>250.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>اولويز ماكس طويل جدا</t>
-  </si>
-  <si>
-    <t>43:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>ببرونه صغير الجو</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>55:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>زيت برافين</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
   </si>
   <si>
     <t>كريم فاتيكا 190 مل</t>
@@ -1104,7 +1131,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1113,31 +1140,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1203,7 +1230,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1225,7 +1252,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1252,13 +1279,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1269,7 +1296,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1285,7 +1312,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1302,7 +1329,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1318,7 +1345,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1328,14 +1355,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1344,14 +1371,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1384,7 +1411,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1417,7 +1444,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1434,7 +1461,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1450,7 +1477,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1467,7 +1494,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1483,7 +1510,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1500,7 +1527,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1516,7 +1543,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1533,7 +1560,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1549,7 +1576,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1559,14 +1586,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1575,14 +1602,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1592,14 +1619,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1608,14 +1635,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1625,14 +1652,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1641,14 +1668,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1658,14 +1685,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1674,14 +1701,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1691,14 +1718,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1707,14 +1734,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1724,14 +1751,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1740,14 +1767,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1757,11 +1784,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1773,14 +1800,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1794,10 +1821,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1806,31 +1833,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1839,14 +1866,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1860,7 +1887,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1872,14 +1899,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1889,14 +1916,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1905,31 +1932,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1938,31 +1965,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1971,31 +1998,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2004,31 +2031,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2037,31 +2064,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2070,31 +2097,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2110,24 +2137,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2136,31 +2163,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2169,20 +2196,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2190,10 +2217,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2202,66 +2229,165 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1769.5050000000001</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>134</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>135</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>23</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>24</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>136</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>139</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>21</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>24</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>140</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>142</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>21</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>24</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>115</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1847.5050000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>143</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>144</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>145</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2450,10 +2576,25 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -440,7 +440,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 4:49 PM</t>
+    <t>Monday, 25 August, 2025 4:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -440,7 +440,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 4:50 PM</t>
+    <t>Monday, 25 August, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1345,7 +1345,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1840,7 +1840,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -210,6 +210,21 @@
   </si>
   <si>
     <t>86.5000</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>90.4800</t>
+  </si>
+  <si>
+    <t>0:7</t>
   </si>
   <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
@@ -1576,7 +1591,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1586,14 +1601,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1602,14 +1617,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1619,14 +1634,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1635,14 +1650,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1652,14 +1667,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1668,14 +1683,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1685,14 +1700,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1701,14 +1716,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1718,14 +1733,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1734,14 +1749,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1751,14 +1766,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1774,7 +1789,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1784,14 +1799,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1800,14 +1815,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1817,14 +1832,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1850,14 +1865,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1866,14 +1881,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1883,11 +1898,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1899,14 +1914,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1916,11 +1931,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1932,31 +1947,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1965,31 +1980,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1998,14 +2013,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2015,14 +2030,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2031,28 +2046,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2064,14 +2079,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2081,11 +2096,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2097,14 +2112,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2114,14 +2129,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2130,14 +2145,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2147,14 +2162,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2163,14 +2178,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2180,11 +2195,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2196,14 +2211,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2213,11 +2228,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2229,14 +2244,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2246,14 +2261,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2262,7 +2277,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2279,14 +2294,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2295,14 +2310,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2312,14 +2327,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2328,7 +2343,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2345,49 +2360,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1847.5050000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>143</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>144</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>145</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>147</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>21</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>24</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>120</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1937.9849999999999</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>148</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>149</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>150</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2591,10 +2639,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>NASSAR 12*8 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:11</t>
+    <t>0:-2</t>
   </si>
   <si>
     <t>156.00</t>
@@ -455,7 +455,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 5:24 PM</t>
+    <t>Monday, 25 August, 2025 5:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>NASSAR 12*8 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:-2</t>
+    <t>0:5</t>
   </si>
   <si>
     <t>156.00</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -176,6 +176,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -203,6 +215,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -287,9 +311,6 @@
     <t>75.8400</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -329,9 +350,6 @@
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -347,9 +365,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -437,12 +452,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -455,7 +464,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 5:37 PM</t>
+    <t>Monday, 25 August, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1459,7 +1468,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1469,14 +1478,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1485,14 +1494,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1502,14 +1511,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1518,14 +1527,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1535,11 +1544,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1568,14 +1577,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1584,14 +1593,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1601,14 +1610,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1624,7 +1633,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1667,14 +1676,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1683,14 +1692,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1700,11 +1709,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1733,14 +1742,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1749,7 +1758,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1766,11 +1775,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1782,14 +1791,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1799,7 +1808,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1822,7 +1831,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1839,7 +1848,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1872,7 +1881,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1888,7 +1897,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1921,7 +1930,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1964,11 +1973,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1980,31 +1989,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2030,11 +2039,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2046,28 +2055,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2079,31 +2088,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2112,28 +2121,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2195,11 +2204,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2265,7 +2274,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2331,10 +2340,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2393,49 +2402,115 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1937.9849999999999</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>147</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>21</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>24</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>148</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>150</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>21</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>24</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>125</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2004.345</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>151</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>152</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>153</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2644,10 +2719,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -380,6 +380,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -434,18 +443,12 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -464,7 +467,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 5:39 PM</t>
+    <t>Monday, 25 August, 2025 5:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2175,7 +2178,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2187,14 +2190,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2227,7 +2230,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,14 +2240,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,14 +2256,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2270,14 +2273,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2286,14 +2289,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2303,11 +2306,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2336,11 +2339,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2359,7 +2362,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2369,14 +2372,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,7 +2388,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2402,14 +2405,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,14 +2421,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2435,14 +2438,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2451,7 +2454,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2468,49 +2471,82 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2004.345</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>151</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>21</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>24</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>128</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2029.345</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
         <v>152</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
         <v>153</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>154</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2729,10 +2765,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>C-VIT DROPS 10 GM/100 ML DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -197,6 +206,36 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL 10MG 30TABS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FOLICAP 2.5MG 24 CAP</t>
   </si>
   <si>
@@ -251,6 +290,15 @@
     <t>0:7</t>
   </si>
   <si>
+    <t>NOLAVER CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -323,9 +371,6 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -401,6 +446,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">بالمرز انبوبه </t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>ببرونه صغير الجو</t>
   </si>
   <si>
@@ -458,16 +512,10 @@
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 5:47 PM</t>
+    <t>Monday, 25 August, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1471,7 +1519,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1481,14 +1529,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1497,14 +1545,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1518,10 +1566,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1537,7 +1585,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1554,7 +1602,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1570,7 +1618,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1580,11 +1628,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1596,31 +1644,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1629,14 +1677,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1653,7 +1701,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1669,7 +1717,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1679,14 +1727,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1695,7 +1743,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1712,11 +1760,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1728,14 +1776,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1745,14 +1793,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1761,14 +1809,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1778,14 +1826,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1794,14 +1842,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1811,7 +1859,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1834,7 +1882,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1867,7 +1915,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,14 +1925,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1893,14 +1941,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1910,11 +1958,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1926,14 +1974,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1943,11 +1991,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1959,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1976,14 +2024,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1992,7 +2040,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2009,14 +2057,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2032,7 +2080,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,14 +2090,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2058,31 +2106,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2091,14 +2139,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2108,14 +2156,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2124,14 +2172,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2141,14 +2189,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,31 +2205,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2190,31 +2238,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,14 +2271,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2240,11 +2288,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2256,31 +2304,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2289,28 +2337,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2322,14 +2370,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2339,11 +2387,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2355,14 +2403,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2372,11 +2420,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2388,7 +2436,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2405,14 +2453,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2421,14 +2469,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2438,14 +2486,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2454,14 +2502,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2471,14 +2519,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2487,14 +2535,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2504,49 +2552,247 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2029.345</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>152</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>153</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>154</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>159</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>31</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>24</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>149</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>160</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>161</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>24</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>140</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>162</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>23</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>24</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>163</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>164</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>23</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>24</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>165</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>166</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>21</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>24</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>146</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>167</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>21</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>24</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>143</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2286.665</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>168</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>169</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>170</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2770,10 +3016,40 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -218,6 +218,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL 10MG 30TABS</t>
   </si>
   <si>
@@ -227,13 +239,7 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
+    <t>78.0000</t>
   </si>
   <si>
     <t>FOLICAP 2.5MG 24 CAP</t>
@@ -392,6 +398,24 @@
     <t>61.00</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -416,6 +440,12 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>ZINCOSIL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -515,7 +545,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 6:27 PM</t>
+    <t>Monday, 25 August, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1651,24 +1681,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1677,31 +1707,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1717,7 +1747,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1727,14 +1757,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1743,14 +1773,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1760,11 +1790,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1776,14 +1806,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1793,14 +1823,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1809,14 +1839,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1826,14 +1856,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1842,14 +1872,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1859,14 +1889,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1875,14 +1905,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1892,14 +1922,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1908,14 +1938,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1925,7 +1955,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1948,7 +1978,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1958,14 +1988,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1974,14 +2004,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1991,14 +2021,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2007,14 +2037,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2024,14 +2054,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2040,14 +2070,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2057,14 +2087,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2073,14 +2103,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2090,14 +2120,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2106,14 +2136,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2123,14 +2153,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2139,14 +2169,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2156,14 +2186,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2172,14 +2202,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2189,14 +2219,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2205,14 +2235,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2222,11 +2252,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2245,7 +2275,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2255,11 +2285,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2278,13 +2308,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2311,7 +2341,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2328,7 +2358,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2344,7 +2374,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2354,14 +2384,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2370,14 +2400,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2387,11 +2417,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2403,31 +2433,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2436,7 +2466,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2449,15 +2479,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2469,28 +2499,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2502,14 +2532,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2519,14 +2549,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2535,14 +2565,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2552,11 +2582,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2568,14 +2598,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2585,11 +2615,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2601,14 +2631,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2618,11 +2648,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2634,14 +2664,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2655,10 +2685,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>139</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2667,14 +2697,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2684,14 +2714,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2700,14 +2730,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2717,11 +2747,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2733,14 +2763,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2750,49 +2780,181 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2286.665</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>168</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>169</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>170</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>172</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>23</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>24</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>173</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>174</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>23</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>24</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>175</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>176</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>21</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>24</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>156</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>177</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>21</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>24</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>153</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2448.665</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>178</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>179</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>180</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3046,10 +3208,30 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -236,6 +236,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>FAKTU OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -257,7 +266,7 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>44.0000</t>
   </si>
   <si>
     <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
@@ -314,60 +323,63 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:33</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>75.8400</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:33</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL CREAM 20GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>75.8400</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -440,6 +452,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>VONACIDAN 20 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ZINCOSIL CREAM 20 GM</t>
   </si>
   <si>
@@ -452,87 +473,87 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>43:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بالمرز انبوبه </t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>ببرونه صغير الجو</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>55:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>زيت برافين</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>اولويز ماكس طويل جدا</t>
-  </si>
-  <si>
-    <t>43:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بالمرز انبوبه </t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>ببرونه صغير الجو</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>55:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>زيت برافين</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -545,7 +566,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 6:34 PM</t>
+    <t>Monday, 25 August, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1747,7 +1768,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1757,14 +1778,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1773,14 +1794,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1790,14 +1811,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1813,7 +1834,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1846,7 +1867,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1856,14 +1877,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1872,14 +1893,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1896,7 +1917,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1912,7 +1933,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1922,14 +1943,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1938,14 +1959,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1955,14 +1976,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1978,7 +1999,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1988,11 +2009,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2004,14 +2025,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2021,14 +2042,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2037,14 +2058,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2061,7 +2082,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2077,7 +2098,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2087,14 +2108,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2103,14 +2124,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2120,14 +2141,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2143,7 +2164,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2153,14 +2174,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2169,14 +2190,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2193,7 +2214,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2209,7 +2230,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2219,14 +2240,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2235,14 +2256,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2252,14 +2273,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2268,14 +2289,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2285,11 +2306,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2301,14 +2322,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2318,14 +2339,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2334,14 +2355,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2351,11 +2372,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2367,14 +2388,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2384,14 +2405,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2400,31 +2421,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2433,31 +2454,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2466,14 +2487,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2483,14 +2504,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2499,14 +2520,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2516,14 +2537,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2532,28 +2553,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2565,20 +2586,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2586,7 +2607,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2598,14 +2619,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2615,14 +2636,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2631,14 +2652,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2671,7 +2692,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2681,14 +2702,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2697,14 +2718,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2714,11 +2735,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2730,14 +2751,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2747,14 +2768,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2763,14 +2784,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2780,11 +2801,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2796,14 +2817,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2813,14 +2834,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2829,14 +2850,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2846,14 +2867,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2862,14 +2883,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2879,14 +2900,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2895,14 +2916,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2912,49 +2933,115 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2448.665</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>178</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>179</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>180</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>183</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>21</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>24</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>162</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>184</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>21</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>24</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>159</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2690.665</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>185</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>186</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>187</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3228,10 +3315,20 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>54.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -140,9 +152,6 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -221,9 +230,6 @@
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -290,6 +296,9 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
     <t>NASSAR 12*8 F.C. TAB.</t>
   </si>
   <si>
@@ -317,9 +326,6 @@
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -566,7 +572,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 6:45 PM</t>
+    <t>Monday, 25 August, 2025 6:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1279,18 +1285,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1299,20 +1305,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1323,7 +1329,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1332,14 +1338,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1349,14 +1355,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1372,21 +1378,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1398,28 +1404,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1431,28 +1437,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1464,14 +1470,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1481,7 +1487,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1504,7 +1510,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1514,11 +1520,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1530,14 +1536,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1554,7 +1560,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1570,7 +1576,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1603,7 +1609,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1613,14 +1619,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1629,14 +1635,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1650,10 +1656,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1669,7 +1675,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1679,11 +1685,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1695,14 +1701,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1712,14 +1718,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1728,24 +1734,24 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1768,21 +1774,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1794,14 +1800,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1811,14 +1817,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1834,7 +1840,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1844,14 +1850,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1860,14 +1866,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1877,14 +1883,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1893,14 +1899,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1910,14 +1916,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1926,14 +1932,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1943,14 +1949,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1959,14 +1965,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1976,14 +1982,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1992,14 +1998,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2009,14 +2015,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2025,14 +2031,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2042,14 +2048,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2058,14 +2064,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2075,14 +2081,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2091,14 +2097,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2108,14 +2114,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2124,14 +2130,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2141,14 +2147,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2157,14 +2163,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2174,14 +2180,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2190,14 +2196,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2207,14 +2213,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>61</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2223,14 +2229,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2240,11 +2246,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2256,14 +2262,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2273,14 +2279,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2289,14 +2295,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2306,14 +2312,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2322,14 +2328,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2339,11 +2345,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2355,14 +2361,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2372,11 +2378,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2388,14 +2394,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2405,11 +2411,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2421,14 +2427,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2438,11 +2444,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2454,31 +2460,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2487,14 +2493,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2504,14 +2510,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2520,28 +2526,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2553,14 +2559,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2570,11 +2576,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2586,14 +2592,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2603,11 +2609,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2619,31 +2625,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2652,31 +2658,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2685,31 +2691,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2718,31 +2724,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2751,31 +2757,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2784,31 +2790,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2817,31 +2823,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2850,31 +2856,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2883,31 +2889,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2916,31 +2922,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2949,31 +2955,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2982,66 +2988,132 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2690.665</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>185</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>16</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>28</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>164</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>186</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>16</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>28</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>161</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2738.665</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
         <v>187</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>188</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>189</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3325,10 +3397,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>26.7300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -155,6 +167,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -236,6 +257,12 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>EZAPRIL 10MG 30TABS</t>
   </si>
   <si>
@@ -266,6 +293,15 @@
     <t>12.5000</t>
   </si>
   <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -278,9 +314,6 @@
     <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -314,12 +347,18 @@
     <t>0:7</t>
   </si>
   <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>NOLAVER CREAM 50 GM</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>90.0000</t>
   </si>
   <si>
@@ -380,18 +419,18 @@
     <t>75.8400</t>
   </si>
   <si>
+    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -476,7 +515,7 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>96.00</t>
+    <t>192.0000</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -572,7 +611,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 6:51 PM</t>
+    <t>Monday, 25 August, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1296,7 +1335,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1318,15 +1357,15 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1338,20 +1377,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1362,7 +1401,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1371,14 +1410,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1388,14 +1427,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1411,24 +1450,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1437,31 +1476,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1470,31 +1509,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1503,7 +1542,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1520,14 +1559,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1536,14 +1575,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1576,7 +1615,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1593,7 +1632,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1609,7 +1648,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1619,14 +1658,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1635,14 +1674,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1656,10 +1695,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1675,7 +1714,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1692,7 +1731,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1722,10 +1761,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1741,7 +1780,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1758,7 +1797,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1774,24 +1813,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1800,14 +1839,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1817,11 +1856,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1833,14 +1872,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1850,14 +1889,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1866,31 +1905,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1899,14 +1938,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1916,14 +1955,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1932,14 +1971,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1949,14 +1988,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1965,14 +2004,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1982,14 +2021,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1998,14 +2037,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2015,14 +2054,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2031,14 +2070,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2055,7 +2094,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2064,14 +2103,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2081,14 +2120,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2097,14 +2136,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2114,14 +2153,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2130,14 +2169,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2147,14 +2186,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2163,14 +2202,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2180,14 +2219,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2203,7 +2242,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2213,14 +2252,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2229,14 +2268,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2246,11 +2285,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2262,14 +2301,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2279,14 +2318,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2295,14 +2334,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2312,14 +2351,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2328,14 +2367,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2345,11 +2384,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2361,14 +2400,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2378,14 +2417,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2394,7 +2433,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2411,14 +2450,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2427,14 +2466,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2444,14 +2483,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2460,14 +2499,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2477,14 +2516,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2493,14 +2532,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2510,11 +2549,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2526,28 +2565,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2559,14 +2598,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2576,11 +2615,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2592,14 +2631,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2609,11 +2648,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2625,14 +2664,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2642,11 +2681,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2658,14 +2697,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2675,11 +2714,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2691,31 +2730,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2724,28 +2763,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2757,31 +2796,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2790,31 +2829,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2823,31 +2862,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2856,31 +2895,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2889,31 +2928,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2922,28 +2961,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2955,31 +2994,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2988,31 +3027,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3021,31 +3060,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3061,59 +3100,257 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2738.665</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>187</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>188</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>189</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>39</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>32</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>180</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>191</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>192</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>32</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>170</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>193</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>31</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>32</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>194</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>196</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>31</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>32</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>197</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>198</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>16</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>32</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>177</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>199</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>16</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>32</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>174</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2993.5749999999998</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>200</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>201</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>202</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3407,10 +3644,40 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -611,7 +611,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 7:02 PM</t>
+    <t>Monday, 25 August, 2025 7:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -329,6 +329,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
@@ -611,7 +620,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 7:03 PM</t>
+    <t>Monday, 25 August, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2176,24 +2185,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2202,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2252,14 +2261,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>114</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2275,7 +2284,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2285,14 +2294,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2301,14 +2310,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2318,11 +2327,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2334,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2351,14 +2360,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2367,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2391,7 +2400,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2407,7 +2416,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2417,14 +2426,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2473,7 +2482,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2483,14 +2492,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2516,14 +2525,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2549,11 +2558,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2605,7 +2614,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2622,7 +2631,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2638,7 +2647,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2652,7 +2661,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2664,14 +2673,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2704,7 +2713,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2737,7 +2746,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2747,14 +2756,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2763,31 +2772,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2803,13 +2812,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2820,7 +2829,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2836,7 +2845,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2869,7 +2878,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2883,10 +2892,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2928,24 +2937,24 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -2968,7 +2977,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2978,14 +2987,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3034,7 +3043,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3067,7 +3076,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3077,14 +3086,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3126,14 +3135,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3143,11 +3152,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3159,14 +3168,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3176,11 +3185,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3192,14 +3201,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3209,14 +3218,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3246,10 +3255,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>139</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3275,14 +3284,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3291,7 +3300,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3308,49 +3317,82 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2993.5749999999998</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>200</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>201</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>202</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>16</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>32</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>177</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3053.5749999999998</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>203</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>204</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>205</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3674,10 +3716,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 7:10 PM</t>
+    <t>Monday, 25 August, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 7:11 PM</t>
+    <t>Monday, 25 August, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -47,300 +47,327 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CEFZIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>CEMBA CAPS</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>CERELAC رز بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>C-VIT DROPS 10 GM/100 ML DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>24.00</t>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>EZAPRIL 10MG 30TABS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>FAKTU OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FOLICAP 2.5MG 24 CAP</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>30.5000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CEFZIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>CEMBA CAPS</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>CERELAC رز بدون لبن</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>C-VIT DROPS 10 GM/100 ML DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>EZAPRIL 10MG 30TABS</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>FAKTU OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>FOLICAP 2.5MG 24 CAP</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
     <t>NASSAR 12*8 F.C. TAB.</t>
   </si>
   <si>
@@ -566,6 +593,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>40:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>جل فاتيكا اكياس</t>
   </si>
   <si>
@@ -578,6 +617,12 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>84:0</t>
+  </si>
+  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -614,13 +659,19 @@
     <t>3.00</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 7:13 PM</t>
+    <t>Monday, 25 August, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1278,7 +1329,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1287,14 +1338,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1304,14 +1355,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1320,14 +1371,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1337,14 +1388,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1353,14 +1404,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1370,14 +1421,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1386,31 +1437,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1419,20 +1470,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1443,7 +1494,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1452,14 +1503,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1469,14 +1520,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1485,20 +1536,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1509,7 +1560,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1525,13 +1576,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1542,7 +1593,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1558,24 +1609,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1584,14 +1635,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1601,14 +1652,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1624,7 +1675,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1641,7 +1692,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1657,7 +1708,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1667,14 +1718,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1683,14 +1734,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1707,7 +1758,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1723,7 +1774,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1740,7 +1791,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1770,10 +1821,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1789,7 +1840,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1806,7 +1857,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1839,7 +1890,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1855,7 +1906,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1872,7 +1923,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1898,14 +1949,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1914,31 +1965,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1947,14 +1998,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1964,14 +2015,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1980,31 +2031,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2013,14 +2064,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,14 +2081,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2046,14 +2097,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2063,14 +2114,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2079,14 +2130,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,14 +2147,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2112,14 +2163,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2129,14 +2180,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2145,14 +2196,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2162,14 +2213,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2178,31 +2229,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2211,14 +2262,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2228,14 +2279,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2244,31 +2295,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2277,14 +2328,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2294,14 +2345,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2310,14 +2361,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,14 +2378,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,14 +2394,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,14 +2411,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2376,14 +2427,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,14 +2444,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2409,14 +2460,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,14 +2477,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,14 +2493,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2459,14 +2510,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2475,14 +2526,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,14 +2543,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,14 +2559,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,14 +2576,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>71</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2541,14 +2592,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,14 +2609,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2574,14 +2625,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2642,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2658,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,14 +2675,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2640,14 +2691,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2657,14 +2708,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2673,14 +2724,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,14 +2741,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2706,14 +2757,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,14 +2774,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,14 +2790,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2807,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,14 +2823,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,14 +2840,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2805,31 +2856,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,14 +2889,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2855,14 +2906,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2871,31 +2922,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,14 +2955,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2921,14 +2972,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,14 +2988,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2954,14 +3005,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,31 +3021,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,31 +3054,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,31 +3087,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,31 +3120,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,31 +3153,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3135,31 +3186,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3168,31 +3219,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3201,31 +3252,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3234,31 +3285,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>198</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3267,31 +3318,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>142</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3300,31 +3351,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3333,66 +3384,264 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3053.5749999999998</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>203</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>204</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>205</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>211</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>35</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>36</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>212</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>214</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>35</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>36</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>215</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>216</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>35</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>36</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>196</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>217</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>33</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>36</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>189</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>218</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>12</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>36</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>14</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>219</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>33</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>36</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>186</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3375.4549999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>220</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>221</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>222</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3721,10 +3970,40 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -368,6 +368,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>NASSAR 12*8 F.C. TAB.</t>
   </si>
   <si>
@@ -500,6 +509,12 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -533,15 +548,6 @@
     <t>16.8300</t>
   </si>
   <si>
-    <t>VONACIDAN 20 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t>ZINCOSIL CREAM 20 GM</t>
   </si>
   <si>
@@ -569,12 +575,6 @@
     <t>43:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">بالمرز انبوبه </t>
   </si>
   <si>
@@ -671,7 +671,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 7:15 PM</t>
+    <t>Monday, 25 August, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2368,7 +2368,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2378,14 +2378,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2394,14 +2394,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2411,14 +2411,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2434,7 +2434,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2444,14 +2444,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2460,14 +2460,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2477,11 +2477,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>33</v>
@@ -2493,14 +2493,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2510,14 +2510,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2526,14 +2526,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2550,7 +2550,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2566,7 +2566,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2576,14 +2576,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2592,14 +2592,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2609,14 +2609,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>143</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2632,7 +2632,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2642,14 +2642,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2658,14 +2658,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2675,14 +2675,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2691,14 +2691,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2708,11 +2708,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2724,14 +2724,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2741,14 +2741,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2764,7 +2764,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2781,7 +2781,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2797,7 +2797,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2823,14 +2823,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2840,14 +2840,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2863,7 +2863,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2896,7 +2896,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2906,11 +2906,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2929,13 +2929,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2962,7 +2962,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2972,11 +2972,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2988,31 +2988,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3021,14 +3021,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3038,14 +3038,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3061,7 +3061,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3071,14 +3071,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3094,21 +3094,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3120,14 +3120,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3137,14 +3137,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3153,14 +3153,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3170,11 +3170,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>33</v>
@@ -3186,14 +3186,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3203,11 +3203,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>33</v>
@@ -3219,14 +3219,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3236,11 +3236,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>33</v>
@@ -3252,14 +3252,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3269,14 +3269,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3285,14 +3285,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3302,14 +3302,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3318,14 +3318,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3335,11 +3335,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>33</v>
@@ -3351,14 +3351,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3368,11 +3368,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>33</v>
@@ -3384,14 +3384,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3401,11 +3401,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>33</v>
@@ -3417,14 +3417,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3434,14 +3434,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>213</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3467,14 +3467,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>83</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3500,14 +3500,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3516,14 +3516,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3533,11 +3533,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>33</v>
@@ -3549,14 +3549,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3566,11 +3566,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>33</v>
@@ -3582,14 +3582,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3599,49 +3599,82 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3375.4549999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>219</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>33</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>36</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>120</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3335.4549999999999</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
         <v>220</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
         <v>221</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
         <v>222</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4000,10 +4033,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -671,7 +671,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 7:19 PM</t>
+    <t>Monday, 25 August, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -110,9 +122,6 @@
     <t>54.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -663,6 +672,12 @@
   </si>
   <si>
     <t>كريم فاتيكا 190 مل</t>
+  </si>
+  <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -1362,7 +1377,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1371,14 +1386,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1388,14 +1403,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1428,7 +1443,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1461,7 +1476,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1470,31 +1485,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1503,28 +1518,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1536,14 +1551,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1553,14 +1568,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1569,20 +1584,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1593,7 +1608,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1609,13 +1624,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1626,7 +1641,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1642,24 +1657,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1668,14 +1683,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1685,14 +1700,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1708,7 +1723,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1725,7 +1740,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1741,7 +1756,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1751,14 +1766,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1767,14 +1782,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1791,7 +1806,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1807,7 +1822,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1817,14 +1832,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1857,7 +1872,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1873,7 +1888,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1883,14 +1898,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1899,14 +1914,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1923,7 +1938,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1939,7 +1954,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1949,14 +1964,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1965,14 +1980,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1982,14 +1997,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1998,14 +2013,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2015,14 +2030,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2031,31 +2046,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2064,31 +2079,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2104,7 +2119,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2114,14 +2129,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2130,14 +2145,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2147,14 +2162,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2170,7 +2185,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2187,7 +2202,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2203,7 +2218,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2220,7 +2235,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2236,7 +2251,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2253,7 +2268,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2269,7 +2284,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2286,7 +2301,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2302,13 +2317,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2319,7 +2334,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2335,24 +2350,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2361,14 +2376,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2378,14 +2393,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2401,7 +2416,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2411,14 +2426,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2427,14 +2442,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2444,14 +2459,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2467,7 +2482,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2477,14 +2492,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2493,14 +2508,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2510,14 +2525,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2526,14 +2541,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2543,14 +2558,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2559,14 +2574,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2583,7 +2598,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2599,7 +2614,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2609,14 +2624,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2625,14 +2640,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2642,14 +2657,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2665,7 +2680,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2675,14 +2690,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2691,14 +2706,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2708,14 +2723,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2724,14 +2739,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2741,14 +2756,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2797,7 +2812,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2814,7 +2829,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2830,7 +2845,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2844,10 +2859,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2856,14 +2871,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2873,14 +2888,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2896,7 +2911,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2910,10 +2925,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2922,14 +2937,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2939,14 +2954,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2962,7 +2977,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2972,14 +2987,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2988,31 +3003,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3028,13 +3043,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3045,7 +3060,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3061,7 +3076,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3075,10 +3090,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3104,11 +3119,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3120,31 +3135,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3160,24 +3175,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3186,31 +3201,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3226,13 +3241,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3243,7 +3258,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3259,24 +3274,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3285,28 +3300,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3318,31 +3333,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3351,31 +3366,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3384,31 +3399,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3417,31 +3432,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3450,31 +3465,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>213</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3490,13 +3505,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3504,10 +3519,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>83</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3516,31 +3531,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3549,31 +3564,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3582,7 +3597,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3595,18 +3610,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3615,66 +3630,132 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>223</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>17</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>39</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>18</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>121</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3335.4549999999999</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>220</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>221</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>222</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>224</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>12</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>39</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>123</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3430.4549999999999</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>225</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>226</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>227</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4038,10 +4119,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -83,9 +95,6 @@
     <t>25.7400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -251,9 +260,6 @@
     <t>4:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>47.5200</t>
   </si>
   <si>
@@ -377,6 +383,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -422,13 +437,16 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
@@ -452,6 +470,15 @@
     <t>0:8</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
@@ -686,7 +713,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 7:21 PM</t>
+    <t>Monday, 25 August, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1360,7 +1387,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1370,14 +1397,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>18</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>19</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1410,7 +1437,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1419,14 +1446,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1436,14 +1463,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1452,14 +1479,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1469,14 +1496,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1485,14 +1512,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1502,14 +1529,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1518,28 +1545,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1551,31 +1578,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1584,14 +1611,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1601,14 +1628,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1617,20 +1644,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1641,7 +1668,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1657,13 +1684,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1674,7 +1701,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1690,24 +1717,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1716,7 +1743,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1733,14 +1760,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1773,7 +1800,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1789,7 +1816,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1799,14 +1826,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1815,14 +1842,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1839,7 +1866,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1855,7 +1882,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1865,14 +1892,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1881,14 +1908,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1905,7 +1932,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1921,7 +1948,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1931,14 +1958,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1947,14 +1974,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1964,14 +1991,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1980,14 +2007,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1997,14 +2024,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2013,14 +2040,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2030,11 +2057,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2046,14 +2073,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2063,14 +2090,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2086,24 +2113,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2119,24 +2146,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2145,14 +2172,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2162,14 +2189,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2185,7 +2212,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2195,14 +2222,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2211,14 +2238,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2228,14 +2255,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2244,14 +2271,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2261,14 +2288,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2294,14 +2321,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2310,14 +2337,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2327,14 +2354,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2343,31 +2370,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2376,31 +2403,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2416,7 +2443,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2426,11 +2453,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2442,14 +2469,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2459,14 +2486,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2475,14 +2502,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2492,14 +2519,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2508,14 +2535,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2525,14 +2552,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2548,7 +2575,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2558,14 +2585,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2574,14 +2601,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2591,14 +2618,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2614,7 +2641,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2624,11 +2651,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2640,14 +2667,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2657,14 +2684,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>146</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2673,7 +2700,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2690,11 +2717,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2706,14 +2733,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2723,14 +2750,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>72</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2739,14 +2766,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2756,14 +2783,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2779,7 +2806,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2789,14 +2816,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2805,14 +2832,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2822,14 +2849,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2838,14 +2865,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2855,14 +2882,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2871,14 +2898,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2888,14 +2915,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2904,14 +2931,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2921,11 +2948,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2937,14 +2964,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2954,14 +2981,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2970,14 +2997,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2987,14 +3014,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3003,14 +3030,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3020,14 +3047,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3036,31 +3063,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3069,14 +3096,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,14 +3113,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3102,14 +3129,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,14 +3146,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3135,31 +3162,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3168,31 +3195,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3201,28 +3228,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3234,31 +3261,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3267,31 +3294,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3300,28 +3327,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3333,31 +3360,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3366,28 +3393,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3399,28 +3426,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3432,31 +3459,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3465,28 +3492,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3498,31 +3525,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3531,31 +3558,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3564,28 +3591,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3597,31 +3624,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3630,31 +3657,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3663,28 +3690,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3696,7 +3723,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3709,53 +3736,152 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3430.4549999999999</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>225</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>226</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>227</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>230</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>231</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>42</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>208</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>232</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>21</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>42</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>22</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>233</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>12</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>42</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>128</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3524.7350000000001</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>234</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>235</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>236</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4129,10 +4255,25 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -107,6 +107,21 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>-7.6800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -257,10 +272,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>47.5200</t>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>71.2800</t>
   </si>
   <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
@@ -284,6 +299,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
@@ -344,12 +368,6 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
   </si>
   <si>
@@ -368,6 +386,27 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>JARDIANCE 25 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>626.00</t>
+  </si>
+  <si>
+    <t>626.0000</t>
+  </si>
+  <si>
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
@@ -377,6 +416,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>-12.0000</t>
+  </si>
+  <si>
     <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
@@ -416,6 +464,12 @@
     <t>0:7</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
@@ -437,9 +491,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -686,7 +737,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>16:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -713,7 +767,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 7:26 PM</t>
+    <t>Monday, 25 August, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1536,7 +1590,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1545,14 +1599,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1562,14 +1616,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1578,20 +1632,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1624,18 +1678,18 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1644,14 +1698,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1661,14 +1715,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1677,31 +1731,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1710,31 +1764,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1743,31 +1797,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1776,7 +1830,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1793,11 +1847,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>19</v>
@@ -1809,7 +1863,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1826,14 +1880,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1842,14 +1896,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1859,14 +1913,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1875,14 +1929,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1892,11 +1946,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>19</v>
@@ -1908,14 +1962,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1925,14 +1979,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1941,14 +1995,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1958,14 +2012,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1974,14 +2028,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1991,14 +2045,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2007,14 +2061,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2024,14 +2078,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2040,14 +2094,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2057,14 +2111,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2073,14 +2127,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2090,11 +2144,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2106,14 +2160,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2123,14 +2177,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2139,31 +2193,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2172,14 +2226,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2189,14 +2243,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2205,31 +2259,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2238,14 +2292,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2255,11 +2309,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2271,14 +2325,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2288,14 +2342,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2304,7 +2358,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2321,14 +2375,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2337,14 +2391,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2354,14 +2408,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2370,14 +2424,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2387,14 +2441,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2410,13 +2464,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2427,7 +2481,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2443,7 +2497,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2453,14 +2507,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2469,14 +2523,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2486,14 +2540,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2502,14 +2556,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2519,11 +2573,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2535,31 +2589,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2575,7 +2629,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2585,14 +2639,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2608,7 +2662,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2618,7 +2672,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2641,7 +2695,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2651,14 +2705,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2667,14 +2721,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2684,14 +2738,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2707,7 +2761,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2717,14 +2771,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2733,14 +2787,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2750,14 +2804,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2773,7 +2827,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2806,7 +2860,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2816,11 +2870,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2832,14 +2886,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2849,14 +2903,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2865,14 +2919,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2882,14 +2936,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>19</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2898,14 +2952,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2915,14 +2969,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2931,14 +2985,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2948,14 +3002,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>169</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2971,7 +3025,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3018,10 +3072,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3030,14 +3084,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3047,14 +3101,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3063,14 +3117,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3080,11 +3134,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>19</v>
@@ -3096,14 +3150,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3113,14 +3167,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3129,14 +3183,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3146,14 +3200,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3162,31 +3216,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3195,14 +3249,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3212,11 +3266,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>19</v>
@@ -3228,14 +3282,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3245,11 +3299,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3261,14 +3315,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3278,14 +3332,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3294,31 +3348,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3327,31 +3381,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3360,28 +3414,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3393,31 +3447,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3426,28 +3480,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3466,21 +3520,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3492,31 +3546,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3525,28 +3579,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3558,28 +3612,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3591,28 +3645,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3631,24 +3685,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>225</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3657,31 +3711,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3690,28 +3744,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3723,28 +3777,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3756,28 +3810,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3789,28 +3843,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3822,66 +3876,264 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3524.7350000000001</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>234</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>235</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>236</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>244</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>46</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>47</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>245</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>246</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>46</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>47</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>225</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>247</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>12</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>47</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>218</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>248</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>249</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>47</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>225</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>250</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>100</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>47</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>22</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>251</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>12</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>47</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>144</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4369.4750000000004</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>252</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>253</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>254</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4270,10 +4522,40 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -767,7 +767,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 7:30 PM</t>
+    <t>Monday, 25 August, 2025 7:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -341,6 +341,18 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>4:8</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -521,6 +533,15 @@
     <t>0:8</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
@@ -599,9 +620,6 @@
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -767,7 +785,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 7:34 PM</t>
+    <t>Monday, 25 August, 2025 8:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2332,7 +2350,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2342,14 +2360,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2358,14 +2376,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2375,14 +2393,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2547,7 +2565,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2563,7 +2581,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2573,11 +2591,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2589,7 +2607,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2602,18 +2620,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2622,31 +2640,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2655,14 +2673,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2672,14 +2690,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2688,14 +2706,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2721,14 +2739,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2738,14 +2756,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2778,7 +2796,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2808,10 +2826,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2837,14 +2855,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2853,14 +2871,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2870,14 +2888,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2903,11 +2921,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>162</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2959,7 +2977,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2976,7 +2994,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2985,14 +3003,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3002,14 +3020,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3025,7 +3043,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3035,14 +3053,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>19</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3068,11 +3086,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3108,7 +3126,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3134,14 +3152,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3150,14 +3168,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3167,14 +3185,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3216,14 +3234,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,11 +3251,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>19</v>
@@ -3249,14 +3267,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3282,14 +3300,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3315,14 +3333,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3332,11 +3350,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>19</v>
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3365,11 +3383,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3381,14 +3399,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3398,11 +3416,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>19</v>
@@ -3414,28 +3432,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,7 +3482,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3493,7 +3511,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3501,7 +3519,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3513,14 +3531,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3546,31 +3564,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3579,31 +3597,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3629,14 +3647,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3662,11 +3680,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3685,7 +3703,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3695,11 +3713,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3728,14 +3746,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3744,14 +3762,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3761,11 +3779,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3801,7 +3819,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3817,7 +3835,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3827,11 +3845,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3843,14 +3861,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3860,11 +3878,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3893,14 +3911,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>243</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3916,7 +3934,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3926,14 +3944,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3959,14 +3977,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3975,14 +3993,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3992,14 +4010,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4008,14 +4026,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4025,11 +4043,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4041,14 +4059,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4058,14 +4076,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4074,14 +4092,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4091,49 +4109,115 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4369.4750000000004</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>252</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>253</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>254</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>256</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>100</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>47</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>22</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>257</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>12</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>47</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>148</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4428.7550000000001</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>258</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>259</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>260</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4552,10 +4636,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -125,9 +137,6 @@
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -785,7 +794,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 8:09 PM</t>
+    <t>Monday, 25 August, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1608,7 +1617,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>19</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1657,7 +1666,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1667,14 +1676,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1683,28 +1692,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1716,31 +1725,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1766,14 +1775,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1782,20 +1791,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1806,7 +1815,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1822,13 +1831,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1839,7 +1848,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1855,24 +1864,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1881,7 +1890,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1898,7 +1907,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1938,7 +1947,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1954,7 +1963,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1964,14 +1973,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2020,7 +2029,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2030,14 +2039,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2070,7 +2079,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2086,7 +2095,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2096,14 +2105,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2152,7 +2161,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2202,7 +2211,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2218,7 +2227,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2277,28 +2286,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>19</v>
@@ -2310,31 +2319,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2350,7 +2359,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2393,14 +2402,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2409,14 +2418,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2426,14 +2435,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2449,7 +2458,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2466,7 +2475,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2482,7 +2491,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2548,7 +2557,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2565,7 +2574,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2581,7 +2590,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2591,14 +2600,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2647,13 +2656,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2664,7 +2673,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2680,24 +2689,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2713,7 +2722,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2723,14 +2732,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2739,14 +2748,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2779,7 +2788,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2796,7 +2805,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2812,7 +2821,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2838,14 +2847,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2855,14 +2864,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2871,14 +2880,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2888,14 +2897,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2911,7 +2920,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2921,14 +2930,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2954,11 +2963,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>166</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3020,14 +3029,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>169</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3043,7 +3052,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3086,14 +3095,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>176</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3126,7 +3135,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3142,7 +3151,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3159,7 +3168,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3175,7 +3184,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3185,14 +3194,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3218,14 +3227,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3251,11 +3260,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>19</v>
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3307,7 +3316,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3324,7 +3333,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3340,7 +3349,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3354,7 +3363,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>19</v>
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3383,14 +3392,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3406,7 +3415,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3416,14 +3425,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3449,14 +3458,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3472,7 +3481,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3482,14 +3491,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3498,31 +3507,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3538,13 +3547,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3555,7 +3564,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3571,7 +3580,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3585,10 +3594,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3630,24 +3639,24 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3670,24 +3679,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3696,28 +3705,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3736,13 +3745,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3769,21 +3778,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3795,31 +3804,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3828,31 +3837,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3861,28 +3870,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3894,28 +3903,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3927,28 +3936,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3960,31 +3969,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>249</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3993,31 +4002,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>93</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4026,31 +4035,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4059,28 +4068,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4092,28 +4101,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4125,31 +4134,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4158,66 +4167,99 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4428.7550000000001</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>258</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>259</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>260</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>12</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>50</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>151</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4555.7550000000001</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>261</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>262</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>263</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4646,10 +4688,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
@@ -218,6 +230,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -269,6 +290,15 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>C-VIT DROPS 10 GM/100 ML DROPS 15 ML</t>
   </si>
   <si>
@@ -590,9 +620,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -794,7 +821,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 8:14 PM</t>
+    <t>Monday, 25 August, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1452,7 +1479,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1461,14 +1488,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1478,14 +1505,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1501,7 +1528,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1511,14 +1538,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>23</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1551,7 +1578,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1584,7 +1611,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1617,7 +1644,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1650,7 +1677,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1659,14 +1686,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1683,7 +1710,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1692,14 +1719,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1716,7 +1743,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1738,18 +1765,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1758,20 +1785,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1782,7 +1809,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1815,7 +1842,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1831,24 +1858,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1857,31 +1884,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1890,31 +1917,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1923,14 +1950,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1940,14 +1967,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1956,14 +1983,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1973,14 +2000,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1989,14 +2016,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2013,7 +2040,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2029,7 +2056,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2046,7 +2073,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2079,7 +2106,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2095,7 +2122,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2112,7 +2139,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2138,14 +2165,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2154,14 +2181,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2171,14 +2198,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2187,14 +2214,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2211,7 +2238,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2227,7 +2254,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2237,14 +2264,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2260,7 +2287,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2270,14 +2297,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2286,14 +2313,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2303,14 +2330,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2319,31 +2346,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2352,14 +2379,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2369,14 +2396,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2385,14 +2412,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2402,14 +2429,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2418,31 +2445,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2451,14 +2478,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2468,14 +2495,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2484,14 +2511,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2501,14 +2528,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2517,14 +2544,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2534,14 +2561,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2550,14 +2577,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2567,14 +2594,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2583,14 +2610,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2600,14 +2627,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2616,14 +2643,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2633,14 +2660,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2656,7 +2683,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2673,7 +2700,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2689,13 +2716,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2706,7 +2733,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2732,14 +2759,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2748,14 +2775,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2765,14 +2792,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2781,31 +2808,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2814,14 +2841,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2831,14 +2858,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2847,14 +2874,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2864,14 +2891,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2880,14 +2907,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2897,14 +2924,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2920,7 +2947,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2937,7 +2964,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2953,7 +2980,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2963,14 +2990,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2979,14 +3006,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2996,14 +3023,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3012,14 +3039,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3029,14 +3056,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3045,14 +3072,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3062,14 +3089,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3078,14 +3105,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3095,14 +3122,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3111,14 +3138,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3128,14 +3155,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3151,7 +3178,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3168,7 +3195,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3184,7 +3211,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3194,14 +3221,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3210,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3234,7 +3261,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3250,7 +3277,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3260,14 +3287,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3276,14 +3303,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3293,14 +3320,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3309,14 +3336,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3326,14 +3353,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3342,14 +3369,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3359,14 +3386,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3375,7 +3402,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3392,14 +3419,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3408,14 +3435,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3425,14 +3452,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3441,14 +3468,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3458,14 +3485,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3474,14 +3501,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3491,14 +3518,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3507,14 +3534,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3524,14 +3551,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3540,31 +3567,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3573,14 +3600,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,14 +3617,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3606,14 +3633,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3623,14 +3650,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3639,31 +3666,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3672,31 +3699,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3705,31 +3732,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>53</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3738,31 +3765,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3771,31 +3798,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3804,31 +3831,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3837,31 +3864,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3870,31 +3897,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3903,31 +3930,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,31 +3963,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3969,31 +3996,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4002,31 +4029,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>252</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4035,31 +4062,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4068,31 +4095,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4101,31 +4128,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4134,31 +4161,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4167,31 +4194,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4200,66 +4227,165 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4555.7550000000001</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>261</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>262</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>263</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>266</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>267</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>54</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>243</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>268</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>113</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>54</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>26</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>269</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>16</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>54</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>161</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4671.7550000000001</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>270</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>271</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>272</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4693,10 +4819,25 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -365,6 +365,15 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL 10MG 30TABS</t>
   </si>
   <si>
@@ -545,9 +554,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t>0:3</t>
   </si>
   <si>
@@ -599,6 +605,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -671,6 +689,9 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIOCYST 30  TAB</t>
   </si>
   <si>
@@ -821,7 +842,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 8:22 PM</t>
+    <t>Monday, 25 August, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2452,21 +2473,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2478,31 +2499,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2518,7 +2539,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2528,14 +2549,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2544,14 +2565,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2561,14 +2582,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2577,14 +2598,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2594,14 +2615,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2617,7 +2638,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2634,7 +2655,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2650,7 +2671,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2660,14 +2681,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2676,14 +2697,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2693,14 +2714,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2716,7 +2737,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2733,7 +2754,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2749,7 +2770,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2759,14 +2780,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2775,14 +2796,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2821,7 +2842,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2832,7 +2853,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2848,24 +2869,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2881,7 +2902,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2891,14 +2912,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2907,14 +2928,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,14 +2945,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2947,7 +2968,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2964,7 +2985,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2980,7 +3001,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,14 +3011,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3006,14 +3027,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3023,14 +3044,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3039,14 +3060,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3056,14 +3077,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3079,7 +3100,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3089,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3105,14 +3126,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,11 +3143,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3138,14 +3159,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3155,14 +3176,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3171,14 +3192,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3188,14 +3209,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3204,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3237,14 +3258,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3254,14 +3275,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3270,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3287,14 +3308,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3303,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,14 +3341,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3336,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3353,14 +3374,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3369,14 +3390,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3386,7 +3407,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3409,7 +3430,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3419,14 +3440,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3435,14 +3456,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,14 +3473,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3468,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3485,11 +3506,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
@@ -3508,7 +3529,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3522,10 +3543,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3534,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3567,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,11 +3605,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3600,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,11 +3638,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3633,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,11 +3671,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>23</v>
@@ -3666,28 +3687,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3699,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,7 +3737,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3739,7 +3760,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3749,11 +3770,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3765,31 +3786,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3805,13 +3826,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3822,7 +3843,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3838,21 +3859,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3871,24 +3892,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,14 +3918,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3914,14 +3935,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3930,14 +3951,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3947,11 +3968,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3963,14 +3984,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3980,14 +4001,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3996,14 +4017,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4013,11 +4034,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4029,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4046,11 +4067,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4062,14 +4083,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4079,14 +4100,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4112,11 +4133,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4135,7 +4156,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4145,14 +4166,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>261</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4168,7 +4189,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4178,14 +4199,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4194,14 +4215,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4211,11 +4232,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4234,7 +4255,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4244,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4260,14 +4281,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>53</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4277,14 +4298,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,14 +4314,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4310,14 +4331,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4326,7 +4347,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4343,49 +4364,148 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4671.7550000000001</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>270</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>271</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>272</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>273</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>274</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>54</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>250</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>275</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>113</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>54</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>26</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>276</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>16</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>54</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>164</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4773.8050000000003</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>277</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>278</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>279</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4834,10 +4954,25 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -644,36 +644,36 @@
     <t>21.00</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 200MG 20 F.C. DIVITAB.</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
     <t>21.0000</t>
   </si>
   <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 200MG 20 F.C. DIVITAB.</t>
-  </si>
-  <si>
-    <t>61.00</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -824,6 +824,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -842,7 +845,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 8:27 PM</t>
+    <t>Monday, 25 August, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3529,7 +3532,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3543,10 +3546,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3555,7 +3558,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3572,11 +3575,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3588,7 +3591,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3605,7 +3608,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3621,7 +3624,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3638,11 +3641,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3654,7 +3657,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3675,7 +3678,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>23</v>
@@ -4321,7 +4324,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4331,11 +4334,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4354,7 +4357,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4364,11 +4367,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4387,7 +4390,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4397,11 +4400,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4413,14 +4416,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4430,14 +4433,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4453,7 +4456,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4463,49 +4466,82 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>277</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>16</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>54</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>164</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>165</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4773.8050000000003</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>277</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4814.8050000000003</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
         <v>278</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
         <v>279</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>280</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4969,10 +5005,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -95,6 +95,27 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>APEXIDONE 1MG/ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -170,9 +191,6 @@
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -431,9 +449,6 @@
     <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>39.6000</t>
   </si>
   <si>
@@ -473,9 +488,6 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -503,9 +515,6 @@
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
@@ -845,7 +854,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 8:47 PM</t>
+    <t>Monday, 25 August, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1635,7 +1644,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1651,7 +1660,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1661,14 +1670,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1677,14 +1686,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1694,11 +1703,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>23</v>
@@ -1710,14 +1719,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1727,14 +1736,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1743,14 +1752,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1760,11 +1769,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>23</v>
@@ -1776,14 +1785,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1793,14 +1802,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1816,24 +1825,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1842,14 +1851,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1859,14 +1868,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1875,28 +1884,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1908,31 +1917,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1941,20 +1950,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1981,21 +1990,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>23</v>
@@ -2007,31 +2016,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2040,7 +2049,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2057,7 +2066,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2097,7 +2106,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2113,7 +2122,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2123,11 +2132,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>23</v>
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2222,11 +2231,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>23</v>
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2262,7 +2271,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2278,7 +2287,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2311,7 +2320,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2328,7 +2337,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2354,14 +2363,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2387,14 +2396,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2420,11 +2429,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2476,7 +2485,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2502,28 +2511,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2568,31 +2577,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2641,7 +2650,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2707,7 +2716,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2717,14 +2726,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2733,14 +2742,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2750,14 +2759,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2806,7 +2815,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2849,14 +2858,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2865,31 +2874,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2915,14 +2924,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2931,31 +2940,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,11 +3023,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3030,14 +3039,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3080,11 +3089,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3113,14 +3122,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3146,11 +3155,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3179,14 +3188,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3202,7 +3211,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3212,14 +3221,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3228,14 +3237,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3261,14 +3270,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,11 +3320,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3327,14 +3336,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,14 +3353,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3360,14 +3369,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3377,11 +3386,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3476,11 +3485,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3509,14 +3518,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3532,7 +3541,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3565,7 +3574,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,11 +3584,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,14 +3617,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3641,14 +3650,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>23</v>
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,11 +3716,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,11 +3749,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,11 +3782,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3796,24 +3805,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3839,14 +3848,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3855,28 +3864,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3888,14 +3897,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3921,31 +3930,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3954,31 +3963,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3987,31 +3996,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,28 +4029,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>33</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4053,28 +4062,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4086,31 +4095,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4119,28 +4128,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4152,31 +4161,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4185,28 +4194,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4218,28 +4227,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>88</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4258,24 +4267,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>268</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4284,31 +4293,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>53</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,31 +4326,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4357,24 +4366,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4383,28 +4392,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4416,28 +4425,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4456,24 +4465,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4489,59 +4498,125 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4814.8050000000003</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>278</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>279</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>119</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>60</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>26</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>280</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>16</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>60</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>33</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5014.8050000000003</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>281</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>282</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>283</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5010,10 +5085,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -554,6 +554,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -854,7 +863,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 8:48 PM</t>
+    <t>Monday, 25 August, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3244,7 +3253,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3254,11 +3263,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3310,7 +3319,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3324,10 +3333,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>187</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3409,7 +3418,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3426,7 +3435,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3442,7 +3451,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3459,7 +3468,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3475,7 +3484,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3485,14 +3494,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3518,14 +3527,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3534,14 +3543,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3551,14 +3560,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3567,14 +3576,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3584,11 +3593,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3600,7 +3609,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3673,7 +3682,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3687,7 +3696,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>23</v>
@@ -3699,14 +3708,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3739,7 +3748,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,14 +3791,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3805,7 +3814,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3815,14 +3824,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3864,28 +3873,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3904,13 +3913,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3921,7 +3930,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3937,7 +3946,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3951,10 +3960,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3996,24 +4005,24 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4036,7 +4045,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4046,14 +4055,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4079,11 +4088,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>33</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4102,7 +4111,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4135,7 +4144,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4145,11 +4154,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4161,14 +4170,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4178,14 +4187,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4194,14 +4203,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4211,14 +4220,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4244,11 +4253,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4277,11 +4286,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4310,11 +4319,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4326,14 +4335,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4343,14 +4352,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>271</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4359,7 +4368,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4376,14 +4385,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>112</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4392,14 +4401,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4425,14 +4434,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4442,11 +4451,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4475,11 +4484,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4508,11 +4517,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4541,14 +4550,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4557,14 +4566,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4574,49 +4583,82 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>283</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>16</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>60</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>33</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>168</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5014.8050000000003</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>281</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>282</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>283</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5045.8050000000003</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>284</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>285</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>286</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5095,10 +5137,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -863,7 +863,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 9:02 PM</t>
+    <t>Monday, 25 August, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -248,6 +248,12 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -725,7 +731,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>ZINCOSIL CREAM 20 GM</t>
@@ -803,6 +809,15 @@
     <t>84:0</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -830,18 +845,15 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>16:1</t>
+    <t>35.6600</t>
+  </si>
+  <si>
+    <t>17:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -857,13 +869,22 @@
     <t>21:0</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 9:12 PM</t>
+    <t>Monday, 25 August, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2098,13 +2119,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2112,10 +2133,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2124,7 +2145,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2141,11 +2162,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>23</v>
@@ -2157,7 +2178,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2174,14 +2195,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2190,14 +2211,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2207,14 +2228,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2240,11 +2261,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>23</v>
@@ -2256,14 +2277,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2273,14 +2294,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2289,14 +2310,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2306,14 +2327,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2322,14 +2343,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2339,14 +2360,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2355,14 +2376,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2372,14 +2393,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2388,14 +2409,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2405,14 +2426,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2421,14 +2442,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2438,14 +2459,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2454,14 +2475,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2471,14 +2492,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2487,14 +2508,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2504,14 +2525,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2520,14 +2541,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2537,14 +2558,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2560,7 +2581,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2570,11 +2591,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2586,24 +2607,24 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2626,24 +2647,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2652,14 +2673,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2669,14 +2690,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2685,14 +2706,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2702,14 +2723,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2725,7 +2746,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2735,14 +2756,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2751,14 +2772,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2768,14 +2789,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2784,14 +2805,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2801,14 +2822,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2834,14 +2855,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2857,7 +2878,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2867,14 +2888,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2900,14 +2921,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2933,11 +2954,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2949,7 +2970,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2962,18 +2983,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2989,24 +3010,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3015,14 +3036,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3032,14 +3053,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3055,7 +3076,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3065,14 +3086,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3081,14 +3102,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3098,14 +3119,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3121,7 +3142,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3131,14 +3152,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3147,14 +3168,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3164,14 +3185,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3187,7 +3208,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3201,10 +3222,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3213,14 +3234,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3230,14 +3251,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3253,7 +3274,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3263,11 +3284,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3279,14 +3300,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3296,11 +3317,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3312,14 +3333,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3329,14 +3350,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3345,14 +3366,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3362,14 +3383,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3378,14 +3399,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3395,14 +3416,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3411,14 +3432,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3428,14 +3449,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3444,14 +3465,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3461,14 +3482,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3477,14 +3498,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3494,14 +3515,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3510,14 +3531,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3527,14 +3548,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3543,14 +3564,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3560,14 +3581,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3576,14 +3597,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3593,14 +3614,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3616,7 +3637,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,11 +3647,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3642,7 +3663,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3659,14 +3680,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3682,7 +3703,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3696,10 +3717,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3708,14 +3729,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3725,11 +3746,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>23</v>
@@ -3748,7 +3769,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3762,10 +3783,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3774,14 +3795,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3791,14 +3812,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3814,7 +3835,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3824,14 +3845,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3840,14 +3861,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3857,14 +3878,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3880,7 +3901,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3890,14 +3911,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3906,28 +3927,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3939,31 +3960,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3972,14 +3993,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3989,14 +4010,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4012,7 +4033,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4022,14 +4043,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4045,21 +4066,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4071,14 +4092,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>68</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,14 +4109,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4111,7 +4132,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4121,11 +4142,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4137,14 +4158,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4154,11 +4175,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4170,14 +4191,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4187,11 +4208,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4203,14 +4224,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4220,14 +4241,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4236,14 +4257,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4253,14 +4274,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4286,11 +4307,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4302,14 +4323,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4319,14 +4340,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4352,11 +4373,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>94</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4368,14 +4389,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4385,14 +4406,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>274</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4401,14 +4422,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4418,14 +4439,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4434,14 +4455,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4451,14 +4472,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4467,7 +4488,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4484,14 +4505,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4500,14 +4521,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4517,11 +4538,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4533,14 +4554,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4550,11 +4571,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4566,14 +4587,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4583,14 +4604,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4599,14 +4620,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4616,49 +4637,148 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5045.8050000000003</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>284</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>285</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>286</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>29</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>60</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>287</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>289</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>121</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>60</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>26</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>290</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>16</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>60</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>33</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5090.6350000000002</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>291</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>292</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>293</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5142,10 +5262,25 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -152,6 +161,15 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -602,6 +620,15 @@
     <t>0:8</t>
   </si>
   <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -681,6 +708,15 @@
   </si>
   <si>
     <t>61.00</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
   </si>
   <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
@@ -1690,7 +1726,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1707,7 +1743,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1723,7 +1759,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1733,14 +1769,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1749,14 +1785,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1766,11 +1802,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>23</v>
@@ -1782,14 +1818,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1799,11 +1835,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>23</v>
@@ -1815,14 +1851,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1832,14 +1868,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1848,14 +1884,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1865,14 +1901,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1881,14 +1917,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1898,14 +1934,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1914,31 +1950,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1947,14 +1983,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1964,14 +2000,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1980,28 +2016,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2013,31 +2049,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2046,20 +2082,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2086,21 +2122,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>23</v>
@@ -2112,28 +2148,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2145,7 +2181,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2162,11 +2198,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>23</v>
@@ -2178,31 +2214,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2235,7 +2271,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2251,7 +2287,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2261,11 +2297,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>23</v>
@@ -2277,14 +2313,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2294,14 +2330,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2310,14 +2346,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2327,14 +2363,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2343,14 +2379,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2360,11 +2396,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2376,14 +2412,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2400,7 +2436,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2416,7 +2452,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2426,14 +2462,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2449,7 +2485,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2466,7 +2502,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2492,14 +2528,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2508,14 +2544,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2525,14 +2561,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2541,14 +2577,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2558,11 +2594,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2574,14 +2610,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2591,14 +2627,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2614,7 +2650,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2624,14 +2660,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2640,28 +2676,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>23</v>
@@ -2673,14 +2709,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2690,14 +2726,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2706,31 +2742,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2739,14 +2775,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2756,14 +2792,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2779,7 +2815,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2789,14 +2825,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2805,14 +2841,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2822,14 +2858,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2845,7 +2881,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2855,14 +2891,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2871,14 +2907,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2888,14 +2924,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2904,14 +2940,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2921,14 +2957,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2937,14 +2973,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2954,14 +2990,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2970,14 +3006,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2987,14 +3023,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3003,20 +3039,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3024,10 +3060,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3036,14 +3072,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3053,14 +3089,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3069,31 +3105,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3102,14 +3138,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3119,14 +3155,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3135,14 +3171,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3152,11 +3188,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3168,14 +3204,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3192,7 +3228,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>175</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3201,14 +3237,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3218,11 +3254,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3234,14 +3270,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3258,7 +3294,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3267,14 +3303,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3284,11 +3320,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3300,14 +3336,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3317,14 +3353,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3333,14 +3369,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3350,11 +3386,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3366,14 +3402,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3383,14 +3419,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>189</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3399,14 +3435,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3416,11 +3452,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3439,7 +3475,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3449,14 +3485,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>195</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>196</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3465,14 +3501,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3482,11 +3518,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3498,14 +3534,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3515,14 +3551,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>202</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3538,7 +3574,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3555,7 +3591,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3571,7 +3607,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3581,14 +3617,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3597,14 +3633,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3614,14 +3650,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3630,7 +3666,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3647,14 +3683,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3663,14 +3699,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3680,11 +3716,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3696,14 +3732,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3713,14 +3749,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3729,14 +3765,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3746,11 +3782,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>23</v>
@@ -3762,14 +3798,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3779,11 +3815,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3795,7 +3831,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3812,14 +3848,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3828,7 +3864,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3845,11 +3881,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3861,14 +3897,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3878,14 +3914,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3894,14 +3930,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3911,11 +3947,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3927,14 +3963,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3944,11 +3980,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3960,31 +3996,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3993,14 +4029,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4010,14 +4046,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4026,14 +4062,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4043,14 +4079,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4059,14 +4095,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4076,14 +4112,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4092,31 +4128,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4125,31 +4161,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4158,7 +4194,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4171,15 +4207,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4191,31 +4227,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4224,20 +4260,20 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4248,7 +4284,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4270,18 +4306,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4290,28 +4326,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4323,31 +4359,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4356,28 +4392,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4389,31 +4425,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4422,28 +4458,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4455,7 +4491,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4468,18 +4504,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>279</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4488,31 +4524,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4521,28 +4557,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4554,20 +4590,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4575,7 +4611,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4587,31 +4623,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4620,31 +4656,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4653,28 +4689,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4686,31 +4722,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4719,7 +4755,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4732,53 +4768,185 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>33</v>
+        <v>263</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5090.6350000000002</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>291</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>292</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>293</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>296</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>297</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>66</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>270</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>298</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>29</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>66</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>299</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>301</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>127</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>66</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>26</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>302</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>16</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>66</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>36</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5291.5150000000003</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>303</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>304</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>305</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5277,10 +5445,30 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -920,7 +920,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 9:16 PM</t>
+    <t>Monday, 25 August, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -476,6 +476,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -920,7 +929,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 9:20 PM</t>
+    <t>Monday, 25 August, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3013,7 +3022,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3030,7 +3039,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3046,7 +3055,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3072,14 +3081,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3118,7 +3127,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3126,10 +3135,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3138,31 +3147,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3178,7 +3187,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3221,14 +3230,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3244,7 +3253,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3303,14 +3312,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3376,7 +3385,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3402,14 +3411,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3419,7 +3428,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3442,7 +3451,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3452,11 +3461,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3468,14 +3477,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,14 +3494,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3508,7 +3517,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3522,10 +3531,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>198</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3541,7 +3550,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,14 +3560,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3567,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,14 +3593,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>205</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3607,7 +3616,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3624,7 +3633,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3640,7 +3649,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3657,7 +3666,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3673,7 +3682,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3690,7 +3699,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3706,7 +3715,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3732,14 +3741,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,14 +3791,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,11 +3824,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3831,7 +3840,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3864,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3904,7 +3913,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3918,7 +3927,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3947,11 +3956,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3970,7 +3979,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3987,7 +3996,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4003,7 +4012,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,14 +4022,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4029,14 +4038,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,14 +4055,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4069,7 +4078,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4079,14 +4088,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4095,14 +4104,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4112,14 +4121,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4128,28 +4137,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4168,13 +4177,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4185,7 +4194,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4201,7 +4210,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4215,10 +4224,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,14 +4253,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4260,24 +4269,24 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4300,7 +4309,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4319,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4326,14 +4335,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4343,11 +4352,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4366,7 +4375,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4399,7 +4408,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>269</v>
+        <v>120</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4409,11 +4418,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4425,14 +4434,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,14 +4451,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4475,14 +4484,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>280</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4508,14 +4517,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4531,7 +4540,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4541,14 +4550,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4557,14 +4566,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4574,11 +4583,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4590,14 +4599,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4607,11 +4616,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>102</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4640,14 +4649,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>291</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4656,7 +4665,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>120</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4689,14 +4698,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4706,14 +4715,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4722,14 +4731,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4739,11 +4748,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4755,14 +4764,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4772,11 +4781,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4788,14 +4797,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4805,11 +4814,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>29</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4838,11 +4847,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4861,7 +4870,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4871,14 +4880,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4887,14 +4896,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4904,49 +4913,82 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5291.5150000000003</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>303</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>304</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>305</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>16</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>66</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>36</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5630.5150000000003</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>306</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>307</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>308</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5465,10 +5507,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -929,7 +929,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 9:30 PM</t>
+    <t>Monday, 25 August, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -290,6 +290,9 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -380,6 +383,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>386.0000</t>
+  </si>
+  <si>
     <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
   </si>
   <si>
@@ -566,6 +578,12 @@
     <t>0:7</t>
   </si>
   <si>
+    <t>NAVOPROXIN PLUS 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -929,7 +947,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 9:48 PM</t>
+    <t>Monday, 25 August, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2329,7 +2347,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2339,11 +2357,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2355,14 +2373,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,14 +2390,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2388,14 +2406,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2405,11 +2423,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2421,14 +2439,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2438,14 +2456,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2454,14 +2472,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2471,14 +2489,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2487,14 +2505,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2504,14 +2522,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2520,14 +2538,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2537,14 +2555,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2553,14 +2571,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2570,14 +2588,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2586,14 +2604,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2603,14 +2621,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2619,14 +2637,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2636,14 +2654,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2652,14 +2670,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2669,11 +2687,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2685,14 +2703,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,14 +2720,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2718,14 +2736,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,14 +2753,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2751,28 +2769,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2784,14 +2802,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,14 +2819,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2817,31 +2835,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2850,14 +2868,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,14 +2885,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2883,14 +2901,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,14 +2918,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2916,14 +2934,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,14 +2951,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2966,14 +2984,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2989,7 +3007,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2999,14 +3017,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3015,14 +3033,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3032,14 +3050,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3048,14 +3066,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3065,14 +3083,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3081,14 +3099,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3098,11 +3116,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3114,14 +3132,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3131,14 +3149,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3147,31 +3165,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3197,14 +3215,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3213,31 +3231,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3246,14 +3264,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3279,14 +3297,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,11 +3314,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3312,14 +3330,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3329,14 +3347,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>184</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3345,14 +3363,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3362,11 +3380,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3378,14 +3396,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3395,14 +3413,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3411,7 +3429,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3428,11 +3446,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3444,14 +3462,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,11 +3479,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3477,14 +3495,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,14 +3512,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3517,7 +3535,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,14 +3545,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>198</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3543,14 +3561,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,11 +3578,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3576,14 +3594,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,14 +3611,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3609,14 +3627,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3626,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3642,14 +3660,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,11 +3677,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3675,14 +3693,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,14 +3710,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3708,14 +3726,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3725,14 +3743,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3741,14 +3759,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,14 +3776,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3774,14 +3792,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3791,14 +3809,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3807,7 +3825,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3824,14 +3842,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,11 +3875,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3873,14 +3891,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3894,10 +3912,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3906,14 +3924,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,7 +3941,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3946,7 +3964,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,11 +3974,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3972,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4005,14 +4023,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4040,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,14 +4056,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,11 +4073,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4071,14 +4089,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,14 +4106,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4122,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,14 +4139,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4137,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4154,14 +4172,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4177,13 +4195,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4220,14 +4238,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4236,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,11 +4271,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4269,31 +4287,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,31 +4320,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,28 +4353,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4368,31 +4386,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,14 +4419,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,14 +4436,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4434,14 +4452,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,11 +4469,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4467,14 +4485,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,14 +4502,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4500,14 +4518,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>280</v>
+        <v>121</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4517,11 +4535,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4533,14 +4551,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4550,14 +4568,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,14 +4584,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4583,14 +4601,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,14 +4617,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4616,11 +4634,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4632,14 +4650,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4649,14 +4667,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,14 +4683,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4689,7 +4707,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>294</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,14 +4716,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,14 +4733,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4731,14 +4749,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4748,11 +4766,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>270</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4781,14 +4799,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4797,14 +4815,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4814,14 +4832,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4830,14 +4848,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4847,11 +4865,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4863,7 +4881,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4880,11 +4898,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4903,7 +4921,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4913,14 +4931,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4936,7 +4954,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4946,49 +4964,148 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>179</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5630.5150000000003</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>306</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>307</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>29</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>66</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
         <v>308</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>310</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>131</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>66</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>26</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>311</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>16</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>66</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>36</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6114.5150000000003</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>312</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>313</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>314</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5512,10 +5629,25 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -83,12 +83,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -131,9 +140,6 @@
     <t>5:2</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -455,6 +461,18 @@
     <t>17.2800</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -677,12 +695,6 @@
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -815,7 +827,7 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>50.0000</t>
+    <t>75.0000</t>
   </si>
   <si>
     <t>اولويز ماكس طويل جدا</t>
@@ -908,10 +920,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>35.6600</t>
-  </si>
-  <si>
-    <t>17:1</t>
+    <t>37.6600</t>
+  </si>
+  <si>
+    <t>18:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -947,7 +959,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 9:49 PM</t>
+    <t>Monday, 25 August, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1704,7 +1716,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1720,7 +1732,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1730,14 +1742,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1746,14 +1758,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1770,7 +1782,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1786,7 +1798,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1803,7 +1815,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1819,7 +1831,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1829,14 +1841,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1845,14 +1857,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1862,11 +1874,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>23</v>
@@ -1878,14 +1890,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1895,11 +1907,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>23</v>
@@ -1911,14 +1923,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1928,14 +1940,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1944,14 +1956,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1961,14 +1973,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1977,14 +1989,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1994,14 +2006,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2010,14 +2022,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2027,14 +2039,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2043,28 +2055,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2076,31 +2088,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2109,14 +2121,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2126,14 +2138,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2142,31 +2154,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2175,31 +2187,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2208,31 +2220,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2248,24 +2260,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2281,13 +2293,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2295,10 +2307,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2307,7 +2319,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2324,11 +2336,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>23</v>
@@ -2340,14 +2352,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2357,14 +2369,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2373,14 +2385,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2390,11 +2402,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2406,14 +2418,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2423,14 +2435,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2439,14 +2451,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2456,11 +2468,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -2472,14 +2484,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2489,14 +2501,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2505,14 +2517,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2522,14 +2534,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2538,14 +2550,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2555,14 +2567,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2571,14 +2583,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2588,14 +2600,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2621,14 +2633,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2654,14 +2666,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2670,14 +2682,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2687,11 +2699,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2703,14 +2715,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2720,14 +2732,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2736,14 +2748,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2753,14 +2765,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2769,14 +2781,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2786,14 +2798,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2809,7 +2821,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2819,11 +2831,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -2835,24 +2847,24 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2875,24 +2887,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2901,14 +2913,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2918,14 +2930,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2951,14 +2963,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2974,7 +2986,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2984,11 +2996,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3017,14 +3029,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3040,7 +3052,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3050,14 +3062,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3066,14 +3078,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3083,14 +3095,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>105</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3099,14 +3111,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3132,14 +3144,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3172,7 +3184,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3182,11 +3194,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3198,14 +3210,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3215,14 +3227,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3231,20 +3243,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3252,10 +3264,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3264,14 +3276,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3281,14 +3293,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3297,31 +3309,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3330,14 +3342,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3347,14 +3359,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3380,11 +3392,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3396,14 +3408,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3420,7 +3432,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>188</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3429,14 +3441,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3446,11 +3458,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3462,14 +3474,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3483,10 +3495,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3495,14 +3507,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3512,14 +3524,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3528,14 +3540,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3545,11 +3557,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3561,14 +3573,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3578,14 +3590,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3594,14 +3606,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3611,11 +3623,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3627,14 +3639,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3644,14 +3656,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3660,14 +3672,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3677,11 +3689,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3700,7 +3712,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3710,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>210</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>211</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3726,14 +3738,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3743,14 +3755,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3759,14 +3771,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3776,14 +3788,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>217</v>
-      </c>
-      <c t="s" r="Q73" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3799,7 +3811,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3832,7 +3844,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3865,7 +3877,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3875,11 +3887,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3891,14 +3903,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3908,14 +3920,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3924,14 +3936,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,11 +3953,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3957,14 +3969,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3974,14 +3986,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3990,14 +4002,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4007,14 +4019,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,11 +4052,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -4056,14 +4068,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4073,14 +4085,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4089,14 +4101,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4106,11 +4118,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>23</v>
@@ -4122,14 +4134,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,14 +4151,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4155,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4172,11 +4184,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4188,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,11 +4217,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,11 +4250,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4254,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,11 +4283,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4287,31 +4299,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4327,7 +4339,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,14 +4349,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4353,28 +4365,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4386,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,14 +4415,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4426,13 +4438,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4440,10 +4452,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4452,31 +4464,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4485,31 +4497,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4518,28 +4530,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4551,28 +4563,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>278</v>
+        <v>32</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4584,31 +4596,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4617,28 +4629,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4650,28 +4662,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4683,28 +4695,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4716,31 +4728,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4749,28 +4761,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4782,31 +4794,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,31 +4827,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>29</v>
+        <v>300</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4848,31 +4860,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>32</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4881,31 +4893,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4914,28 +4926,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4947,28 +4959,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4980,28 +4992,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5013,31 +5025,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>131</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5053,59 +5065,125 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>36</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>183</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6114.5150000000003</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>312</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>313</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>314</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>133</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>68</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>29</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>315</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>16</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>68</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>39</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6183.9949999999999</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>316</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>317</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>318</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5644,10 +5722,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -959,7 +959,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 9:52 PM</t>
+    <t>Monday, 25 August, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -359,6 +359,12 @@
     <t>19.5000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -920,10 +926,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>37.6600</t>
-  </si>
-  <si>
-    <t>18:1</t>
+    <t>39.6600</t>
+  </si>
+  <si>
+    <t>19:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -959,7 +965,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 9:55 PM</t>
+    <t>Monday, 25 August, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2637,10 +2643,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2649,14 +2655,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2666,14 +2672,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2682,14 +2688,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2699,14 +2705,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2715,14 +2721,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2732,11 +2738,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2748,7 +2754,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2765,14 +2771,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2781,14 +2787,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2798,14 +2804,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2814,14 +2820,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2831,14 +2837,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2854,7 +2860,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2864,11 +2870,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -2880,24 +2886,24 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2920,24 +2926,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2946,14 +2952,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2963,14 +2969,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2979,14 +2985,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2996,14 +3002,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3012,14 +3018,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3029,14 +3035,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3052,7 +3058,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3062,14 +3068,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3078,14 +3084,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3095,14 +3101,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3111,14 +3117,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3128,14 +3134,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3144,14 +3150,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3161,14 +3167,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3184,7 +3190,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3194,14 +3200,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3210,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3227,14 +3233,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3243,14 +3249,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3260,14 +3266,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3276,14 +3282,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3293,11 +3299,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3309,7 +3315,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3322,18 +3328,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3349,24 +3355,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3375,14 +3381,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3392,14 +3398,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3415,7 +3421,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3425,14 +3431,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3441,14 +3447,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3458,14 +3464,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3481,7 +3487,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3491,14 +3497,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3507,14 +3513,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3524,14 +3530,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3547,7 +3553,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3561,7 +3567,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3580,7 +3586,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3594,10 +3600,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3606,14 +3612,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3623,14 +3629,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3646,7 +3652,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3656,11 +3662,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3672,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3689,11 +3695,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3705,14 +3711,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,14 +3728,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>210</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3738,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3788,14 +3794,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3804,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3821,14 +3827,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3837,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,14 +3860,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3870,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,14 +3909,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,14 +3926,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,14 +3959,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3969,14 +3975,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3986,14 +3992,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4002,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,14 +4025,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4042,7 +4048,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,11 +4058,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -4068,7 +4074,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4085,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4108,7 +4114,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4122,10 +4128,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4134,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,11 +4157,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4174,7 +4180,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4188,7 +4194,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4200,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4233,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4273,7 +4279,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4299,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4339,7 +4345,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4365,28 +4371,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4398,31 +4404,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4431,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,14 +4454,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4471,7 +4477,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,14 +4487,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4504,24 +4510,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>133</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4530,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>72</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4570,7 +4576,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4580,11 +4586,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4596,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,11 +4619,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4629,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>125</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,11 +4652,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4662,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4695,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4712,14 +4718,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4735,7 +4741,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4745,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4761,14 +4767,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4778,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4794,14 +4800,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4811,11 +4817,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4827,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4844,11 +4850,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>105</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4867,7 +4873,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>32</v>
+        <v>302</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4877,14 +4883,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>304</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,7 +4899,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4910,14 +4916,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>123</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4926,14 +4932,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,14 +4949,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4959,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>32</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,11 +4982,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4992,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,11 +5015,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5025,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,11 +5048,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5065,7 +5071,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>32</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,11 +5081,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5091,14 +5097,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5108,14 +5114,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5124,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,49 +5147,82 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6183.9949999999999</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>316</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>317</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>16</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>68</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>39</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6197.875</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>318</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>319</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>320</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5732,10 +5771,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -359,6 +359,15 @@
     <t>19.5000</t>
   </si>
   <si>
+    <t>DALACIN C 300MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -494,6 +503,15 @@
     <t>12.5000</t>
   </si>
   <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -776,9 +794,6 @@
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -965,7 +980,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:01 PM</t>
+    <t>Monday, 25 August, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2629,7 +2644,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2639,14 +2654,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2655,14 +2670,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2676,10 +2691,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2695,7 +2710,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2705,14 +2720,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2728,7 +2743,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2738,14 +2753,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2754,14 +2769,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2811,7 +2826,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2827,7 +2842,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2837,14 +2852,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2853,14 +2868,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2870,14 +2885,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2886,14 +2901,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2903,11 +2918,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2926,21 +2941,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>23</v>
@@ -2952,31 +2967,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2992,7 +3007,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3002,14 +3017,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3018,14 +3033,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3035,14 +3050,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3051,14 +3066,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3068,14 +3083,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3084,14 +3099,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3101,14 +3116,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3124,7 +3139,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3141,7 +3156,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3157,7 +3172,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3167,14 +3182,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3183,14 +3198,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3200,14 +3215,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3216,14 +3231,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3233,14 +3248,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3249,14 +3264,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3266,14 +3281,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3289,7 +3304,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3299,11 +3314,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3315,14 +3330,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3332,14 +3347,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3348,20 +3363,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3369,10 +3384,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3381,14 +3396,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3398,14 +3413,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3414,31 +3429,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3447,14 +3462,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3464,14 +3479,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3480,14 +3495,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3497,11 +3512,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3513,14 +3528,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3537,7 +3552,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>196</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3546,14 +3561,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3563,11 +3578,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3579,14 +3594,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3600,10 +3615,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3612,14 +3627,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,14 +3644,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3645,14 +3660,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3662,11 +3677,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3678,14 +3693,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,14 +3710,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3711,14 +3726,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3728,11 +3743,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3744,14 +3759,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,14 +3776,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>212</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3777,14 +3792,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,11 +3809,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3817,7 +3832,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,14 +3842,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>218</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>219</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3843,14 +3858,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3860,14 +3875,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3876,14 +3891,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,14 +3908,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>225</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3949,7 +3964,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,11 +3974,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3975,14 +3990,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>107</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,11 +4007,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -4008,14 +4023,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4025,14 +4040,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,14 +4056,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,7 +4073,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4081,7 +4096,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,14 +4106,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4107,14 +4122,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,14 +4139,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4140,14 +4155,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,11 +4172,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4173,14 +4188,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,14 +4205,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4206,14 +4221,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,11 +4238,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4239,14 +4254,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,14 +4271,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4279,7 +4294,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,11 +4304,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4305,14 +4320,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,11 +4337,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4338,14 +4353,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,14 +4370,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4378,7 +4393,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4403,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4404,31 +4419,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4437,14 +4452,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,14 +4469,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4470,7 +4485,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4483,15 +4498,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4510,7 +4525,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,14 +4535,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,31 +4551,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4576,24 +4591,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4609,7 +4624,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4626,7 +4641,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4642,7 +4657,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,11 +4667,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4668,14 +4683,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>32</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,11 +4700,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4701,14 +4716,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>128</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,14 +4733,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4734,14 +4749,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,11 +4766,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4767,14 +4782,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4817,11 +4832,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4833,14 +4848,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4850,14 +4865,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4883,11 +4898,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4899,14 +4914,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4916,14 +4931,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>306</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,14 +4947,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,14 +4964,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>286</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4972,7 +4987,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>32</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,14 +4997,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4998,7 +5013,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5015,14 +5030,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,14 +5046,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,11 +5063,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5064,14 +5079,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>32</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,11 +5096,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5097,14 +5112,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,11 +5129,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5137,7 +5152,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,14 +5162,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5163,14 +5178,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,49 +5195,115 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>191</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6197.875</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>318</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>319</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>320</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>321</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>138</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>68</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>29</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>322</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>16</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>68</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>39</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>6400.875</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>323</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>324</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>325</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5776,10 +5857,20 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -980,7 +980,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:02 PM</t>
+    <t>Monday, 25 August, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>114.00</t>
   </si>
   <si>
-    <t>114.0000</t>
+    <t>228.0000</t>
   </si>
   <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
@@ -767,6 +767,12 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TAVACIN 750MG 5 TAB</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>TEGRETOL CR 200MG 20 F.C. DIVITAB.</t>
   </si>
   <si>
@@ -791,6 +797,9 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -842,6 +851,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -980,7 +998,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:04 PM</t>
+    <t>Monday, 25 August, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2644,7 +2662,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2661,7 +2679,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -4271,14 +4289,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4294,7 +4312,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4308,7 +4326,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4320,14 +4338,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4337,14 +4355,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4353,14 +4371,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4370,14 +4388,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4386,14 +4404,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4403,11 +4421,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4419,14 +4437,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4436,14 +4454,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4452,14 +4470,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4469,11 +4487,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4492,24 +4510,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>21</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4518,14 +4536,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4535,14 +4553,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4551,7 +4569,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4564,15 +4582,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4584,14 +4602,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4601,14 +4619,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4617,31 +4635,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4650,31 +4668,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4683,31 +4701,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4716,14 +4734,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4733,14 +4751,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4749,14 +4767,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4766,11 +4784,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4782,14 +4800,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4799,14 +4817,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4815,14 +4833,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4832,11 +4850,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4848,14 +4866,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>32</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4865,14 +4883,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4881,14 +4899,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4898,14 +4916,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4914,14 +4932,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4931,11 +4949,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4947,14 +4965,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4964,14 +4982,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>105</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4980,14 +4998,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5004,7 +5022,7 @@
         <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>311</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5013,14 +5031,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5030,14 +5048,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5046,14 +5064,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5063,11 +5081,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>287</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5096,14 +5114,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5112,14 +5130,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5129,14 +5147,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5145,14 +5163,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5162,11 +5180,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5178,7 +5196,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5195,11 +5213,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5218,7 +5236,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5228,14 +5246,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5251,7 +5269,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5261,49 +5279,148 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>324</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>32</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>68</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>325</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>327</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>138</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>68</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>29</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>328</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>16</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>68</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>39</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>197</v>
       </c>
-      <c t="s" r="Q117" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>6400.875</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>323</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>324</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
-        <v>325</v>
-      </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6709.875</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>329</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>330</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>331</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5867,10 +5984,25 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -998,7 +998,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:06 PM</t>
+    <t>Monday, 25 August, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -668,6 +668,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -792,9 +801,6 @@
   </si>
   <si>
     <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
   </si>
   <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
@@ -3883,7 +3889,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3900,7 +3906,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3916,7 +3922,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3926,14 +3932,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3942,14 +3948,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3959,14 +3965,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>228</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3982,7 +3988,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3999,7 +4005,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4015,7 +4021,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4032,7 +4038,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4048,7 +4054,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4058,14 +4064,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4074,14 +4080,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4091,14 +4097,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4107,14 +4113,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4124,14 +4130,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4140,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4157,14 +4163,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4173,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4190,11 +4196,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4206,7 +4212,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4223,14 +4229,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4239,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4256,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4279,7 +4285,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4289,14 +4295,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,7 +4311,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4322,14 +4328,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>70</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4338,14 +4344,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,11 +4361,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4378,7 +4384,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4395,7 +4401,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4411,7 +4417,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4421,11 +4427,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4437,7 +4443,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4454,14 +4460,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4470,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,14 +4493,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4503,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4520,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4543,7 +4549,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4553,14 +4559,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4569,28 +4575,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4602,31 +4608,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4635,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4652,14 +4658,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4675,7 +4681,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4685,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4708,7 +4714,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4718,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>208</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4734,31 +4740,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>138</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4767,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>72</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4784,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4807,7 +4813,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4817,11 +4823,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4833,14 +4839,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4850,11 +4856,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4866,14 +4872,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>128</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4883,11 +4889,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4899,14 +4905,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4916,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4932,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4949,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4972,7 +4978,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>32</v>
+        <v>305</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4982,14 +4988,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>308</v>
+        <v>32</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5015,14 +5021,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5031,14 +5037,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5048,11 +5054,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5064,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5081,11 +5087,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>105</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5104,7 +5110,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>32</v>
+        <v>315</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5114,14 +5120,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>317</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5130,7 +5136,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5147,14 +5153,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>128</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5163,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>308</v>
+        <v>32</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5180,14 +5186,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5196,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>32</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5213,11 +5219,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5229,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5246,11 +5252,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5262,14 +5268,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5279,11 +5285,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5302,7 +5308,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>32</v>
+        <v>325</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5312,11 +5318,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5328,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5345,14 +5351,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>29</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>30</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5361,14 +5367,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5378,49 +5384,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>330</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>16</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>68</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>39</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>197</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6709.875</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>329</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>330</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6737.875</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
         <v>331</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>332</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>333</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5999,10 +6038,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -3889,7 +3889,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>APEXIDONE 1MG/ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -278,6 +287,15 @@
     <t>12.00</t>
   </si>
   <si>
+    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>72.6000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -686,6 +704,15 @@
     <t>230.0000</t>
   </si>
   <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>QUIBRON T/SR 300MG 100 TAB</t>
   </si>
   <si>
@@ -977,6 +1004,12 @@
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
+    <t>قطن ازن كبير</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -1004,7 +1037,10 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:11 PM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>Monday, 25 August, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1810,7 +1846,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1820,14 +1856,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1836,14 +1872,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1860,7 +1896,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1876,7 +1912,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1893,7 +1929,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1909,7 +1945,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1919,14 +1955,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1952,11 +1988,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>23</v>
@@ -1968,14 +2004,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1985,11 +2021,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>23</v>
@@ -2001,14 +2037,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2025,7 +2061,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2041,7 +2077,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2051,14 +2087,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2067,14 +2103,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2084,14 +2120,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2107,7 +2143,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2117,14 +2153,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2133,28 +2169,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2166,31 +2202,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2199,14 +2235,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2216,14 +2252,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2232,20 +2268,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2256,7 +2292,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2272,13 +2308,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2289,7 +2325,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2305,24 +2341,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2331,31 +2367,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2364,31 +2400,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2404,13 +2440,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2437,7 +2473,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2447,14 +2483,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2463,7 +2499,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2480,14 +2516,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2496,14 +2532,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2513,14 +2549,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2529,14 +2565,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2546,14 +2582,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2562,14 +2598,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2579,14 +2615,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2595,14 +2631,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2612,11 +2648,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2628,14 +2664,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2652,7 +2688,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2668,7 +2704,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2685,7 +2721,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2701,7 +2737,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2711,14 +2747,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2727,14 +2763,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2744,14 +2780,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2760,14 +2796,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2777,11 +2813,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>23</v>
@@ -2810,14 +2846,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2826,14 +2862,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2843,14 +2879,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2859,14 +2895,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2883,7 +2919,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2899,7 +2935,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2909,11 +2945,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2925,14 +2961,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2942,14 +2978,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2965,7 +3001,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2975,14 +3011,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2991,28 +3027,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -3024,14 +3060,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3041,14 +3077,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3057,31 +3093,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3090,14 +3126,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3107,11 +3143,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3123,14 +3159,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3140,14 +3176,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3163,7 +3199,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3173,11 +3209,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3189,14 +3225,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3206,14 +3242,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3229,7 +3265,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3246,7 +3282,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3262,7 +3298,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3272,14 +3308,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3288,14 +3324,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3305,14 +3341,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3321,14 +3357,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3338,14 +3374,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3354,14 +3390,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3371,14 +3407,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3394,7 +3430,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,11 +3440,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3420,14 +3456,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,14 +3473,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3453,20 +3489,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3474,10 +3510,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3486,14 +3522,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3503,14 +3539,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3519,31 +3555,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3552,14 +3588,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,14 +3605,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3585,14 +3621,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3602,11 +3638,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3618,14 +3654,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3642,7 +3678,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3651,14 +3687,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3668,11 +3704,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3684,14 +3720,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3705,10 +3741,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3717,14 +3753,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,14 +3770,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3750,14 +3786,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,11 +3803,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3783,14 +3819,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3800,14 +3836,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3816,14 +3852,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3833,11 +3869,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3849,14 +3885,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3866,14 +3902,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3882,14 +3918,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,14 +3935,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3922,7 +3958,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3936,10 +3972,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>224</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3955,7 +3991,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3965,14 +4001,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>228</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3981,14 +4017,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,14 +4034,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4014,14 +4050,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4031,11 +4067,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4047,14 +4083,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,14 +4100,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>237</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4087,7 +4123,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4097,14 +4133,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,14 +4149,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4166,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4170,7 +4206,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4196,14 +4232,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,14 +4248,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,11 +4265,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4245,14 +4281,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,14 +4298,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4278,14 +4314,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,11 +4331,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4311,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4344,14 +4380,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,14 +4397,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4377,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,11 +4430,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4410,14 +4446,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,11 +4463,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4443,7 +4479,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4460,14 +4496,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>53</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,14 +4512,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,14 +4529,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>98</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4509,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,11 +4562,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4542,14 +4578,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,14 +4595,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,14 +4628,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4608,28 +4644,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4641,14 +4677,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,14 +4694,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4674,14 +4710,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,11 +4727,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4707,31 +4743,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4740,14 +4776,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,14 +4793,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4773,31 +4809,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,31 +4842,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,31 +4875,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4872,31 +4908,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4905,28 +4941,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4938,31 +4974,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,28 +5007,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5004,20 +5040,20 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5028,7 +5064,7 @@
         <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5050,7 +5086,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5061,7 +5097,7 @@
         <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5077,21 +5113,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>25</v>
+        <v>314</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5103,31 +5139,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>315</v>
+        <v>35</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,31 +5172,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>319</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5169,31 +5205,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5202,28 +5238,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5235,31 +5271,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5268,31 +5304,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5301,28 +5337,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5334,28 +5370,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5367,31 +5403,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>29</v>
+        <v>307</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>30</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5400,7 +5436,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5413,53 +5449,218 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6737.875</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>331</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>335</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>336</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>71</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>307</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>337</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>35</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>71</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>338</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>340</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>144</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>71</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>29</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>341</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>16</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>71</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>42</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>342</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
         <v>332</v>
       </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>333</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>71</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>42</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6928.165</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>343</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>344</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>345</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6043,10 +6244,35 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -245,6 +245,18 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 2 GM VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>CEFZIM 1 GM VIAL</t>
   </si>
   <si>
@@ -347,6 +359,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
   </si>
   <si>
@@ -497,9 +521,6 @@
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -566,6 +587,9 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -803,6 +827,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>131.00</t>
+  </si>
+  <si>
+    <t>131.0000</t>
+  </si>
+  <si>
     <t>TAVACIN 750MG 5 TAB</t>
   </si>
   <si>
@@ -830,6 +863,15 @@
     <t>28.00</t>
   </si>
   <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -872,6 +914,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8365:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>ZINCOSIL CREAM 20 GM</t>
   </si>
   <si>
@@ -989,27 +1043,33 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>39.6600</t>
-  </si>
-  <si>
-    <t>19:1</t>
+    <t>49.6600</t>
+  </si>
+  <si>
+    <t>24:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
     <t>قطن ازن كبير</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -1028,9 +1088,6 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1040,7 +1097,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:38 PM</t>
+    <t>Monday, 25 August, 2025 10:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2292,7 +2349,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2308,24 +2365,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2334,14 +2391,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2351,14 +2408,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2367,31 +2424,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2400,31 +2457,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2433,14 +2490,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2450,14 +2507,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2466,28 +2523,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>23</v>
@@ -2499,7 +2556,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2516,11 +2573,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2532,14 +2589,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2549,14 +2606,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2565,14 +2622,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2582,11 +2639,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2598,14 +2655,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2622,7 +2679,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2638,7 +2695,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2648,11 +2705,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2664,14 +2721,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2688,7 +2745,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2704,7 +2761,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2714,14 +2771,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2730,14 +2787,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2747,14 +2804,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2763,14 +2820,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2780,14 +2837,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2796,14 +2853,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2813,14 +2870,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2829,14 +2886,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2846,14 +2903,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2862,14 +2919,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2879,11 +2936,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2895,14 +2952,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2912,14 +2969,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2928,14 +2985,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2945,14 +3002,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2961,14 +3018,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2978,14 +3035,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2994,14 +3051,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3011,11 +3068,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3027,14 +3084,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3044,14 +3101,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3060,14 +3117,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3077,14 +3134,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3093,28 +3150,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -3126,14 +3183,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3143,14 +3200,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3159,31 +3216,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3192,14 +3249,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3232,7 +3289,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3242,14 +3299,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3258,14 +3315,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3275,11 +3332,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3291,14 +3348,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3308,14 +3365,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3324,14 +3381,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3341,14 +3398,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3357,14 +3414,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,14 +3431,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3390,14 +3447,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3407,14 +3464,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3423,14 +3480,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3440,14 +3497,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3456,14 +3513,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3473,14 +3530,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3489,14 +3546,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3529,7 +3586,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3546,7 +3603,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3568,18 +3625,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3588,14 +3645,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3605,14 +3662,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3628,7 +3685,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3638,11 +3695,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3654,28 +3711,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3694,7 +3751,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3704,14 +3761,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3720,14 +3777,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3737,14 +3794,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3753,14 +3810,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3770,14 +3827,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3786,14 +3843,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3803,11 +3860,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3819,14 +3876,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3843,7 +3900,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3852,7 +3909,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3869,11 +3926,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3885,14 +3942,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3902,11 +3959,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3925,7 +3982,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3935,14 +3992,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3951,14 +4008,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3968,14 +4025,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3984,14 +4041,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4001,14 +4058,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,14 +4074,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,11 +4091,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4050,14 +4107,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4067,14 +4124,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4083,14 +4140,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,14 +4157,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>237</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4116,14 +4173,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,14 +4190,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4149,14 +4206,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4166,11 +4223,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4182,14 +4239,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4199,14 +4256,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4215,14 +4272,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,14 +4289,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4248,14 +4305,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4272,7 +4329,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4288,7 +4345,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,14 +4355,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4314,7 +4371,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4331,14 +4388,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4347,14 +4404,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,11 +4421,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4380,14 +4437,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,14 +4454,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4413,14 +4470,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4430,11 +4487,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4446,14 +4503,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,14 +4520,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4479,14 +4536,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,14 +4553,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4512,14 +4569,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,11 +4586,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4545,14 +4602,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,11 +4619,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4578,7 +4635,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4595,11 +4652,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>57</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4611,7 +4668,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4628,14 +4685,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4644,14 +4701,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,14 +4718,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4677,14 +4734,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,14 +4751,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4710,14 +4767,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,11 +4784,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4743,28 +4800,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4776,14 +4833,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4793,14 +4850,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4809,14 +4866,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,11 +4883,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4842,14 +4899,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4859,14 +4916,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4875,14 +4932,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,14 +4949,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4908,14 +4965,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,14 +4982,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4941,31 +4998,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>48</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4974,31 +5031,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5007,28 +5064,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5040,31 +5097,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5080,24 +5137,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>310</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5106,14 +5163,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>314</v>
+        <v>75</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5123,14 +5180,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5146,7 +5203,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5156,14 +5213,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5172,14 +5229,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>319</v>
+        <v>35</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5189,11 +5246,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5205,14 +5262,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5222,11 +5279,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5255,11 +5312,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>111</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5271,14 +5328,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,14 +5345,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>328</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,14 +5361,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>35</v>
+        <v>332</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5321,14 +5378,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5337,14 +5394,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>319</v>
+        <v>35</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5354,14 +5411,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5370,14 +5427,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5387,11 +5444,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5403,14 +5460,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,11 +5477,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5436,14 +5493,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>342</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5453,11 +5510,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>301</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5469,14 +5526,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>336</v>
+        <v>35</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,14 +5543,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5502,7 +5559,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5519,14 +5576,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5535,14 +5592,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5552,11 +5609,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>29</v>
+        <v>349</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>25</v>
@@ -5568,14 +5625,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5585,11 +5642,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>203</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5601,14 +5658,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>332</v>
+        <v>117</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5618,49 +5675,280 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>203</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6928.165</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>343</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>344</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>345</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>353</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>35</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>71</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>325</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>354</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>16</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>71</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>318</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>355</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>356</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>71</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>325</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>357</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>35</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>71</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>358</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>359</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>152</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>71</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>29</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>360</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>16</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>71</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>42</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>361</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>117</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>71</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>42</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>7413.165</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>362</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>363</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>364</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6269,10 +6557,45 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -1097,7 +1097,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:44 PM</t>
+    <t>Monday, 25 August, 2025 10:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -674,6 +674,9 @@
     <t>66.00</t>
   </si>
   <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
@@ -1043,10 +1046,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>49.6600</t>
-  </si>
-  <si>
-    <t>24:1</t>
+    <t>55.6600</t>
+  </si>
+  <si>
+    <t>27:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1097,7 +1100,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:48 PM</t>
+    <t>Monday, 25 August, 2025 10:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3949,7 +3952,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3963,10 +3966,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3975,7 +3978,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3992,11 +3995,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -4008,7 +4011,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4029,7 +4032,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4041,7 +4044,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4058,11 +4061,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4074,7 +4077,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4107,7 +4110,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4124,14 +4127,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4140,7 +4143,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4157,11 +4160,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4173,7 +4176,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4190,11 +4193,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4206,7 +4209,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4223,11 +4226,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4239,14 +4242,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4260,10 +4263,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4272,7 +4275,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4289,11 +4292,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4305,7 +4308,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4322,11 +4325,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4338,7 +4341,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4355,11 +4358,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4371,7 +4374,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4404,14 +4407,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4421,11 +4424,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4437,14 +4440,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4454,11 +4457,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>121</v>
@@ -4470,7 +4473,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4491,7 +4494,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4503,7 +4506,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4536,7 +4539,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4553,11 +4556,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4569,7 +4572,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4586,11 +4589,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4602,7 +4605,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4619,11 +4622,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4635,7 +4638,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4652,11 +4655,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4668,7 +4671,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4685,7 +4688,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4701,7 +4704,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4718,11 +4721,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>23</v>
@@ -4734,7 +4737,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4751,11 +4754,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4767,7 +4770,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4784,11 +4787,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4800,7 +4803,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4833,7 +4836,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4850,7 +4853,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4866,7 +4869,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4883,11 +4886,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4899,7 +4902,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4920,7 +4923,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>23</v>
@@ -4932,7 +4935,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4965,7 +4968,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4982,11 +4985,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4998,7 +5001,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5015,11 +5018,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>121</v>
@@ -5031,14 +5034,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5048,11 +5051,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -5064,7 +5067,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5081,11 +5084,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5097,7 +5100,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5114,11 +5117,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -5130,7 +5133,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5147,11 +5150,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>23</v>
@@ -5163,7 +5166,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5180,11 +5183,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>152</v>
@@ -5196,14 +5199,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5229,7 +5232,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5246,11 +5249,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5262,7 +5265,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5279,11 +5282,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5295,14 +5298,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5312,11 +5315,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5328,14 +5331,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5345,11 +5348,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>25</v>
@@ -5361,14 +5364,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5378,11 +5381,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5394,7 +5397,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5411,11 +5414,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>25</v>
@@ -5427,14 +5430,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5444,11 +5447,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5460,7 +5463,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5477,11 +5480,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5493,14 +5496,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5510,7 +5513,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5526,7 +5529,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5543,14 +5546,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5559,7 +5562,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5576,11 +5579,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>79</v>
@@ -5592,7 +5595,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5609,11 +5612,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>25</v>
@@ -5625,14 +5628,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5642,11 +5645,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5658,7 +5661,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5675,11 +5678,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5691,7 +5694,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5708,11 +5711,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5724,7 +5727,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5741,11 +5744,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5757,14 +5760,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5774,11 +5777,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5790,7 +5793,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5807,11 +5810,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5823,7 +5826,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5856,7 +5859,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5889,7 +5892,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5918,13 +5921,13 @@
     </row>
     <row r="134" ht="25.5" customHeight="1">
       <c r="P134" s="13">
-        <v>7413.165</v>
+        <v>7452.165</v>
       </c>
       <c r="Q134" s="13"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
       <c t="s" r="A135" s="14">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -5932,13 +5935,13 @@
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
       <c t="s" r="G135" s="15">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
       <c r="J135" s="16"/>
       <c t="s" r="K135" s="17">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L135" s="17"/>
       <c r="M135" s="17"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -1100,7 +1100,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:49 PM</t>
+    <t>Monday, 25 August, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -200,6 +200,21 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -374,9 +389,6 @@
     <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>470.00</t>
   </si>
   <si>
@@ -569,6 +581,18 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
   </si>
   <si>
@@ -614,9 +638,6 @@
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -650,9 +671,6 @@
     <t>NASSAR 12*8 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:5</t>
-  </si>
-  <si>
     <t>156.00</t>
   </si>
   <si>
@@ -671,9 +689,6 @@
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
     <t>99.0000</t>
   </si>
   <si>
@@ -917,6 +932,12 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>VOTRIAXONE 1 GM I.M VIAL</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -1055,7 +1076,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>21.0000</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -1100,7 +1121,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:50 PM</t>
+    <t>Monday, 25 August, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2203,7 +2224,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2213,14 +2234,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2229,14 +2250,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2246,14 +2267,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2262,28 +2283,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2295,31 +2316,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2328,14 +2349,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2345,11 +2366,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -2361,14 +2382,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2394,31 +2415,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2427,31 +2448,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2460,31 +2481,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2493,31 +2514,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2526,31 +2547,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2559,28 +2580,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2592,7 +2613,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2609,11 +2630,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2642,14 +2663,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2658,14 +2679,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2675,11 +2696,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2691,14 +2712,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2708,14 +2729,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2724,14 +2745,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2741,11 +2762,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2757,14 +2778,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2774,14 +2795,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2790,14 +2811,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2807,14 +2828,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2823,14 +2844,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2840,14 +2861,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2856,14 +2877,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2873,14 +2894,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2889,14 +2910,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2906,14 +2927,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2922,14 +2943,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2939,14 +2960,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2955,14 +2976,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2976,10 +2997,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2988,14 +3009,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3005,14 +3026,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3045,7 +3066,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3061,7 +3082,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3071,11 +3092,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3087,7 +3108,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3104,14 +3125,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3120,14 +3141,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3144,7 +3165,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3170,14 +3191,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3186,14 +3207,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3203,11 +3224,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>23</v>
@@ -3219,28 +3240,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -3252,31 +3273,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3285,14 +3306,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3309,7 +3330,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3325,7 +3346,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3335,14 +3356,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3351,14 +3372,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3368,14 +3389,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3384,14 +3405,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3401,14 +3422,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3417,7 +3438,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3434,11 +3455,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3450,14 +3471,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3467,14 +3488,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3483,14 +3504,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3500,14 +3521,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>152</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3516,14 +3537,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3533,14 +3554,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3549,14 +3570,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3566,14 +3587,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3582,14 +3603,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3599,14 +3620,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3622,7 +3643,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3632,7 +3653,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3648,14 +3669,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3688,7 +3709,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3705,7 +3726,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3727,18 +3748,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3747,14 +3768,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3764,14 +3785,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3787,7 +3808,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3797,11 +3818,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3813,28 +3834,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3846,14 +3867,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3863,14 +3884,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3886,7 +3907,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3896,14 +3917,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3912,14 +3933,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3929,14 +3950,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3945,14 +3966,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3962,14 +3983,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3978,14 +3999,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3995,14 +4016,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4011,7 +4032,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4028,11 +4049,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4044,14 +4065,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4061,14 +4082,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4077,14 +4098,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4094,14 +4115,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4110,14 +4131,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4127,14 +4148,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>233</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4143,14 +4164,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4160,14 +4181,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4176,14 +4197,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4193,11 +4214,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4209,14 +4230,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4226,14 +4247,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4242,14 +4263,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4259,14 +4280,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>246</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4275,14 +4296,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4292,14 +4313,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4308,14 +4329,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4325,11 +4346,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4341,14 +4362,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4358,14 +4379,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4374,14 +4395,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4391,14 +4412,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4407,14 +4428,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4424,14 +4445,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4440,14 +4461,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4457,14 +4478,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>121</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4473,7 +4494,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4490,14 +4511,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4506,14 +4527,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4523,11 +4544,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>23</v>
@@ -4539,14 +4560,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4556,14 +4577,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4579,7 +4600,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4589,11 +4610,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>147</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4605,14 +4626,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4622,14 +4643,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4638,14 +4659,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4655,14 +4676,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4671,14 +4692,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4688,11 +4709,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>23</v>
@@ -4704,14 +4725,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4721,14 +4742,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4737,14 +4758,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4754,11 +4775,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4770,7 +4791,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4787,14 +4808,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4803,14 +4824,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4820,14 +4841,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4836,14 +4857,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4853,14 +4874,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4876,7 +4897,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4909,7 +4930,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4919,14 +4940,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4935,14 +4956,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4952,14 +4973,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4968,28 +4989,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5001,7 +5022,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5018,14 +5039,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>121</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5034,14 +5055,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5051,14 +5072,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>304</v>
+        <v>157</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5067,7 +5088,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5080,15 +5101,15 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5100,14 +5121,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5117,14 +5138,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>223</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5133,14 +5154,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5150,14 +5171,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5166,31 +5187,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5199,28 +5220,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>317</v>
+        <v>35</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5232,31 +5253,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>228</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5265,31 +5286,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5298,31 +5319,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5331,31 +5352,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5364,28 +5385,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>333</v>
+        <v>35</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5397,31 +5418,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5430,28 +5451,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5463,31 +5484,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>25</v>
+        <v>336</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5496,28 +5517,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5529,7 +5550,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5542,18 +5563,18 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>346</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5562,31 +5583,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5595,31 +5616,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5628,28 +5649,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>323</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5661,31 +5682,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5707,18 +5728,18 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>327</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5727,31 +5748,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5760,28 +5781,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5793,28 +5814,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5826,31 +5847,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>29</v>
+        <v>333</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>30</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5859,7 +5880,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5872,15 +5893,15 @@
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>211</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5892,66 +5913,198 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>117</v>
+        <v>364</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>211</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>7452.165</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>363</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>364</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
         <v>365</v>
       </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>35</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>76</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>366</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>358</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>367</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>16</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>76</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>29</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>368</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>16</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>76</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>42</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>369</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>122</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>76</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>42</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>7742.0050000000001</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>370</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>371</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>372</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6595,10 +6748,30 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -1121,7 +1121,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:56 PM</t>
+    <t>Monday, 25 August, 2025 10:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -881,6 +881,9 @@
     <t>28.00</t>
   </si>
   <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
@@ -1121,7 +1124,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:57 PM</t>
+    <t>Monday, 25 August, 2025 10:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4864,7 +4867,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4878,10 +4881,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4890,7 +4893,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4907,11 +4910,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4923,7 +4926,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4956,7 +4959,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4989,7 +4992,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5006,11 +5009,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5022,7 +5025,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5043,7 +5046,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>23</v>
@@ -5055,7 +5058,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5088,7 +5091,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5105,11 +5108,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5121,7 +5124,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5138,11 +5141,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>67</v>
@@ -5154,7 +5157,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5175,7 +5178,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>25</v>
@@ -5187,14 +5190,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5204,11 +5207,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5220,7 +5223,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5237,11 +5240,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5253,7 +5256,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5274,7 +5277,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
@@ -5286,7 +5289,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5303,11 +5306,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>23</v>
@@ -5319,7 +5322,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5336,11 +5339,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>156</v>
@@ -5352,14 +5355,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5385,7 +5388,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5402,11 +5405,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5418,7 +5421,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5435,11 +5438,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5451,14 +5454,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5468,11 +5471,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5484,14 +5487,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5501,11 +5504,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>25</v>
@@ -5517,14 +5520,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5534,11 +5537,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5550,7 +5553,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5567,11 +5570,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>25</v>
@@ -5583,14 +5586,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5600,11 +5603,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5616,7 +5619,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5633,11 +5636,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5649,14 +5652,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5666,7 +5669,7 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
@@ -5682,7 +5685,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5699,14 +5702,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5715,7 +5718,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5732,14 +5735,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5748,7 +5751,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5765,11 +5768,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>25</v>
@@ -5781,14 +5784,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5798,11 +5801,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5814,7 +5817,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5831,11 +5834,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5847,7 +5850,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5864,11 +5867,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5880,7 +5883,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5897,11 +5900,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5913,14 +5916,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5930,11 +5933,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5946,7 +5949,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5963,11 +5966,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5979,7 +5982,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -6012,7 +6015,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6045,7 +6048,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6074,13 +6077,13 @@
     </row>
     <row r="138" ht="24.75" customHeight="1">
       <c r="P138" s="13">
-        <v>7742.0050000000001</v>
+        <v>7770.0050000000001</v>
       </c>
       <c r="Q138" s="13"/>
     </row>
     <row r="139" ht="16.5" customHeight="1">
       <c t="s" r="A139" s="14">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -6088,13 +6091,13 @@
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c t="s" r="G139" s="15">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
       <c r="J139" s="16"/>
       <c t="s" r="K139" s="17">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L139" s="17"/>
       <c r="M139" s="17"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -554,6 +554,15 @@
     <t>12.5000</t>
   </si>
   <si>
+    <t>FUCIDIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>FUNGICAN 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -731,9 +740,6 @@
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>28.0000</t>
   </si>
   <si>
@@ -881,9 +887,6 @@
     <t>28.00</t>
   </si>
   <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
@@ -1094,6 +1097,9 @@
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
     <t>قطن ازن كبير</t>
   </si>
   <si>
@@ -1124,7 +1130,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:58 PM</t>
+    <t>Monday, 25 August, 2025 10:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3514,7 +3520,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3531,7 +3537,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3547,7 +3553,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3557,14 +3563,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>156</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3573,14 +3579,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3590,14 +3596,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>67</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3606,7 +3612,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3623,11 +3629,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>67</v>
@@ -3639,14 +3645,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3656,14 +3662,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3672,14 +3678,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3689,11 +3695,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3712,7 +3718,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3729,7 +3735,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3745,7 +3751,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3771,14 +3777,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3788,11 +3794,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3804,14 +3810,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3850,18 +3856,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3870,31 +3876,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3910,7 +3916,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3920,14 +3926,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3936,14 +3942,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3953,14 +3959,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3976,7 +3982,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3986,14 +3992,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4002,14 +4008,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4019,14 +4025,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4052,14 +4058,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4068,14 +4074,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4085,14 +4091,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4101,14 +4107,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4118,14 +4124,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4141,7 +4147,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4151,14 +4157,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4167,14 +4173,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4184,7 +4190,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4207,7 +4213,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4217,11 +4223,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4233,14 +4239,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4250,14 +4256,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>238</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4273,7 +4279,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4287,10 +4293,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>241</v>
-      </c>
-      <c t="s" r="Q83" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4306,7 +4312,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4316,14 +4322,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4332,14 +4338,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4349,11 +4355,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4365,14 +4371,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4382,14 +4388,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4398,14 +4404,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4415,14 +4421,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4431,14 +4437,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4448,14 +4454,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4464,14 +4470,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4481,14 +4487,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4497,14 +4503,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4514,14 +4520,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4530,14 +4536,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4547,14 +4553,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4563,14 +4569,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4580,14 +4586,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4596,14 +4602,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4613,14 +4619,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4636,7 +4642,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4646,11 +4652,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>23</v>
@@ -4662,7 +4668,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4679,14 +4685,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4702,7 +4708,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4716,10 +4722,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4728,7 +4734,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4745,14 +4751,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4761,14 +4767,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4778,7 +4784,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4811,14 +4817,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4834,7 +4840,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4848,7 +4854,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>23</v>
@@ -4860,14 +4866,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4877,14 +4883,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4910,14 +4916,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4926,7 +4932,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4943,11 +4949,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4976,14 +4982,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4999,7 +5005,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5009,14 +5015,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5025,14 +5031,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5042,14 +5048,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>21</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5058,14 +5064,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5075,14 +5081,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>158</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5098,21 +5104,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5124,31 +5130,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5157,14 +5163,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5174,14 +5180,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5190,14 +5196,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>35</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5207,11 +5213,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5223,14 +5229,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>35</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5240,14 +5246,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5256,14 +5262,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5273,14 +5279,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5289,14 +5295,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5306,14 +5312,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5322,31 +5328,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>156</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5355,14 +5361,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5372,14 +5378,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>218</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5388,14 +5394,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>35</v>
+        <v>326</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5405,11 +5411,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5421,14 +5427,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5438,11 +5444,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5454,14 +5460,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>333</v>
+        <v>146</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5471,11 +5477,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5487,14 +5493,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5504,14 +5510,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5520,14 +5526,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5537,14 +5543,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5553,14 +5559,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>35</v>
+        <v>342</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5570,14 +5576,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5586,14 +5592,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>346</v>
+        <v>35</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5603,14 +5609,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5619,14 +5625,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>25</v>
+        <v>347</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5636,11 +5642,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5659,7 +5665,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5669,11 +5675,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>120</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5685,14 +5691,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>35</v>
+        <v>352</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5702,14 +5708,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>353</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>354</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5718,7 +5724,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5735,14 +5741,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>175</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5751,7 +5757,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5768,14 +5774,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>359</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>25</v>
+        <v>357</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5784,14 +5790,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>346</v>
+        <v>35</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5801,14 +5807,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5824,7 +5830,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>122</v>
+        <v>347</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5834,11 +5840,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5857,7 +5863,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>35</v>
+        <v>352</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5867,11 +5873,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>334</v>
+        <v>174</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5890,7 +5896,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5900,11 +5906,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5923,7 +5929,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>365</v>
+        <v>35</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5933,11 +5939,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5949,14 +5955,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5966,11 +5972,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5982,14 +5988,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5999,14 +6005,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>29</v>
+        <v>335</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6015,14 +6021,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6032,11 +6038,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>218</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6055,7 +6061,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6065,49 +6071,115 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>7770.0050000000001</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>371</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>16</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>76</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>42</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
         <v>372</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>122</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>76</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>42</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>7856.0050000000001</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
         <v>373</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
+        <v>374</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>375</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6771,10 +6843,20 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -1130,7 +1130,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 10:59 PM</t>
+    <t>Monday, 25 August, 2025 11:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -1130,7 +1130,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 25 August, 2025 11:00 PM</t>
+    <t>Monday, 25 August, 2025 11:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-25_00-00.xlsx
+++ b/DaySale_2025-08-25_00-00.xlsx
@@ -71,6 +71,21 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
   </si>
   <si>
@@ -78,9 +93,6 @@
   </si>
   <si>
     <t>11.8800</t>
-  </si>
-  <si>
-    <t>0:1</t>
   </si>
   <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
@@ -1837,7 +1849,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1847,14 +1859,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1863,14 +1875,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1887,7 +1899,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1903,7 +1915,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1913,14 +1925,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1929,14 +1941,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1946,14 +1958,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1962,14 +1974,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1986,7 +1998,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -2002,7 +2014,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2012,14 +2024,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2028,14 +2040,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2045,14 +2057,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2061,14 +2073,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2078,14 +2090,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2094,14 +2106,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2111,14 +2123,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2151,7 +2163,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2167,7 +2179,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2177,14 +2189,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2193,14 +2205,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2217,7 +2229,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2226,14 +2238,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2243,14 +2255,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2259,14 +2271,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2283,7 +2295,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2292,14 +2304,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2316,7 +2328,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2332,13 +2344,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2365,13 +2377,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2382,7 +2394,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2415,7 +2427,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2448,7 +2460,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2464,24 +2476,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2490,31 +2502,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2523,31 +2535,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2556,31 +2568,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2589,31 +2601,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2622,31 +2634,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2655,7 +2667,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2672,14 +2684,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2688,14 +2700,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2705,14 +2717,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2721,14 +2733,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2738,11 +2750,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2778,7 +2790,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2794,7 +2806,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2804,14 +2816,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2820,14 +2832,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2844,7 +2856,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2860,7 +2872,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2870,14 +2882,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>67</v>
+        <v>16